--- a/Monitor and Control/Car-Reviews.xlsx
+++ b/Monitor and Control/Car-Reviews.xlsx
@@ -1,18 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\QA_project\Monitor and Control\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC09EA2-FF0F-46C4-8103-0B26FB9BB490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="PMP" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="SRS" sheetId="2" r:id="rId5"/>
-    <sheet state="hidden" name="Options" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Progress_Chart" sheetId="4" r:id="rId7"/>
+    <sheet name="PMP" sheetId="1" r:id="rId1"/>
+    <sheet name="SRS" sheetId="2" r:id="rId2"/>
+    <sheet name="Options" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Progress_Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjkMVMT14GWJ6p4+HZ0LMgGG7qHbQ=="/>
     </ext>
@@ -125,42 +143,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy"/>
-    <numFmt numFmtId="165" formatCode="d-mmm-yyyy"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -182,7 +203,13 @@
     </fill>
   </fills>
   <borders count="10">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -196,6 +223,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -210,6 +238,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -224,6 +253,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -238,6 +268,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -252,6 +283,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -266,6 +298,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -277,6 +310,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -285,6 +320,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -293,80 +331,96 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -375,7 +429,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" sz="1400">
+              <a:defRPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -383,7 +437,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" i="0" sz="1400">
+              <a:rPr sz="1400" b="0" i="0">
                 <a:solidFill>
                   <a:srgbClr val="757575"/>
                 </a:solidFill>
@@ -396,6 +450,7 @@
       </c:tx>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -405,19 +460,31 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E785-4BE2-BE0E-72683B3F06E7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E785-4BE2-BE0E-72683B3F06E7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -427,14 +494,6 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:pPr lvl="0">
-                      <a:defRPr b="0">
-                        <a:solidFill>
-                          <a:srgbClr val="000000"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                      </a:defRPr>
-                    </a:pPr>
                     <a:r>
                       <a:rPr b="0">
                         <a:solidFill>
@@ -453,6 +512,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E785-4BE2-BE0E-72683B3F06E7}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -461,14 +528,6 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:pPr lvl="0">
-                      <a:defRPr b="0">
-                        <a:solidFill>
-                          <a:srgbClr val="000000"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                      </a:defRPr>
-                    </a:pPr>
                     <a:r>
                       <a:rPr b="0">
                         <a:solidFill>
@@ -487,7 +546,22 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E785-4BE2-BE0E-72683B3F06E7}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -495,18 +569,44 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Progress_Chart!$M$3:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Open</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Closed</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Progress_Chart!$N$3:$N$4</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E785-4BE2-BE0E-72683B3F06E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -515,6 +615,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -527,24 +628,37 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0" i="0" sz="900">
+            <a:defRPr sz="900" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -554,40 +668,66 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3F81-4821-90DA-3FFDBCC5EB4A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3F81-4821-90DA-3FFDBCC5EB4A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Progress_Chart!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Open</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Closed</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Progress_Chart!$C$3:$C$4</c:f>
-              <c:numCache/>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3F81-4821-90DA-3FFDBCC5EB4A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -596,6 +736,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -608,35 +749,31 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0" i="0" sz="900">
+            <a:defRPr sz="900" b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="1A1A1A"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -645,9 +782,15 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4371975" cy="2705100"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="722245990" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="722245990" name="Chart 1" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000066990C2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -656,7 +799,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -670,9 +813,15 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4371975" cy="2714625"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="455386459" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="455386459" name="Chart 2" title="Chart">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005BA5241B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -681,7 +830,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -691,7 +840,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -881,31 +1030,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.29"/>
-    <col customWidth="1" min="2" max="2" width="13.86"/>
-    <col customWidth="1" min="3" max="3" width="14.71"/>
-    <col customWidth="1" min="4" max="4" width="64.43"/>
-    <col customWidth="1" min="5" max="7" width="13.86"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" customWidth="1"/>
+    <col min="5" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:26" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -947,11 +1096,11 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" ht="49.5" customHeight="1">
+    <row r="2" spans="1:26" ht="49.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -970,11 +1119,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="48.75" customHeight="1">
+    <row r="3" spans="1:26" ht="48.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -993,3020 +1142,3016 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="G4" s="10"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="G5" s="10"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="G6" s="10"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="G7" s="10"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="G8" s="10"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="G9" s="10"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="G11" s="10"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="G12" s="10"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="G13" s="10"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="G14" s="10"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="G15" s="10"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="G16" s="10"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="7:7" ht="14.25" customHeight="1">
       <c r="G17" s="10"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="7:7" ht="14.25" customHeight="1">
       <c r="G18" s="10"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="7:7" ht="14.25" customHeight="1">
       <c r="G19" s="10"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="7:7" ht="14.25" customHeight="1">
       <c r="G20" s="10"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="7:7" ht="14.25" customHeight="1">
       <c r="G21" s="10"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="7:7" ht="14.25" customHeight="1">
       <c r="G22" s="10"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="7:7" ht="14.25" customHeight="1">
       <c r="G23" s="10"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="7:7" ht="14.25" customHeight="1">
       <c r="G24" s="10"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="7:7" ht="14.25" customHeight="1">
       <c r="G25" s="10"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="7:7" ht="14.25" customHeight="1">
       <c r="G26" s="10"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="7:7" ht="14.25" customHeight="1">
       <c r="G27" s="10"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="7:7" ht="14.25" customHeight="1">
       <c r="G28" s="10"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="7:7" ht="14.25" customHeight="1">
       <c r="G29" s="10"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="7:7" ht="14.25" customHeight="1">
       <c r="G30" s="10"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="7:7" ht="14.25" customHeight="1">
       <c r="G31" s="10"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="7:7" ht="14.25" customHeight="1">
       <c r="G32" s="10"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="7:7" ht="14.25" customHeight="1">
       <c r="G33" s="10"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="7:7" ht="14.25" customHeight="1">
       <c r="G34" s="10"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="7:7" ht="14.25" customHeight="1">
       <c r="G35" s="10"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="7:7" ht="14.25" customHeight="1">
       <c r="G36" s="10"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="7:7" ht="14.25" customHeight="1">
       <c r="G37" s="10"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="7:7" ht="14.25" customHeight="1">
       <c r="G38" s="10"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="7:7" ht="14.25" customHeight="1">
       <c r="G39" s="10"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="7:7" ht="14.25" customHeight="1">
       <c r="G40" s="10"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="7:7" ht="14.25" customHeight="1">
       <c r="G41" s="10"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="7:7" ht="14.25" customHeight="1">
       <c r="G42" s="10"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="7:7" ht="14.25" customHeight="1">
       <c r="G43" s="10"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="7:7" ht="14.25" customHeight="1">
       <c r="G44" s="10"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="7:7" ht="14.25" customHeight="1">
       <c r="G45" s="10"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="7:7" ht="14.25" customHeight="1">
       <c r="G46" s="10"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="7:7" ht="14.25" customHeight="1">
       <c r="G47" s="10"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="7:7" ht="14.25" customHeight="1">
       <c r="G48" s="10"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="7:7" ht="14.25" customHeight="1">
       <c r="G49" s="10"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="7:7" ht="14.25" customHeight="1">
       <c r="G50" s="10"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="7:7" ht="14.25" customHeight="1">
       <c r="G51" s="10"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="7:7" ht="14.25" customHeight="1">
       <c r="G52" s="10"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="7:7" ht="14.25" customHeight="1">
       <c r="G53" s="10"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="7:7" ht="14.25" customHeight="1">
       <c r="G54" s="10"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="7:7" ht="14.25" customHeight="1">
       <c r="G55" s="10"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="7:7" ht="14.25" customHeight="1">
       <c r="G56" s="10"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="7:7" ht="14.25" customHeight="1">
       <c r="G57" s="10"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="7:7" ht="14.25" customHeight="1">
       <c r="G58" s="10"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="7:7" ht="14.25" customHeight="1">
       <c r="G59" s="10"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="7:7" ht="14.25" customHeight="1">
       <c r="G60" s="10"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="7:7" ht="14.25" customHeight="1">
       <c r="G61" s="10"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="7:7" ht="14.25" customHeight="1">
       <c r="G62" s="10"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="7:7" ht="14.25" customHeight="1">
       <c r="G63" s="10"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="7:7" ht="14.25" customHeight="1">
       <c r="G64" s="10"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="7:7" ht="14.25" customHeight="1">
       <c r="G65" s="10"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="7:7" ht="14.25" customHeight="1">
       <c r="G66" s="10"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="7:7" ht="14.25" customHeight="1">
       <c r="G67" s="10"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="7:7" ht="14.25" customHeight="1">
       <c r="G68" s="10"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="7:7" ht="14.25" customHeight="1">
       <c r="G69" s="10"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="7:7" ht="14.25" customHeight="1">
       <c r="G70" s="10"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="7:7" ht="14.25" customHeight="1">
       <c r="G71" s="10"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="7:7" ht="14.25" customHeight="1">
       <c r="G72" s="10"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="7:7" ht="14.25" customHeight="1">
       <c r="G73" s="10"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="7:7" ht="14.25" customHeight="1">
       <c r="G74" s="10"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="7:7" ht="14.25" customHeight="1">
       <c r="G75" s="10"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="7:7" ht="14.25" customHeight="1">
       <c r="G76" s="10"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="7:7" ht="14.25" customHeight="1">
       <c r="G77" s="10"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="7:7" ht="14.25" customHeight="1">
       <c r="G78" s="10"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="7:7" ht="14.25" customHeight="1">
       <c r="G79" s="10"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="7:7" ht="14.25" customHeight="1">
       <c r="G80" s="10"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="7:7" ht="14.25" customHeight="1">
       <c r="G81" s="10"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="7:7" ht="14.25" customHeight="1">
       <c r="G82" s="10"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="7:7" ht="14.25" customHeight="1">
       <c r="G83" s="10"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="7:7" ht="14.25" customHeight="1">
       <c r="G84" s="10"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="7:7" ht="14.25" customHeight="1">
       <c r="G85" s="10"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="7:7" ht="14.25" customHeight="1">
       <c r="G86" s="10"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="7:7" ht="14.25" customHeight="1">
       <c r="G87" s="10"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="7:7" ht="14.25" customHeight="1">
       <c r="G88" s="10"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="7:7" ht="14.25" customHeight="1">
       <c r="G89" s="10"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="7:7" ht="14.25" customHeight="1">
       <c r="G90" s="10"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="7:7" ht="14.25" customHeight="1">
       <c r="G91" s="10"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="7:7" ht="14.25" customHeight="1">
       <c r="G92" s="10"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="7:7" ht="14.25" customHeight="1">
       <c r="G93" s="10"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="7:7" ht="14.25" customHeight="1">
       <c r="G94" s="10"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="7:7" ht="14.25" customHeight="1">
       <c r="G95" s="10"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="7:7" ht="14.25" customHeight="1">
       <c r="G96" s="10"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="7:7" ht="14.25" customHeight="1">
       <c r="G97" s="10"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="7:7" ht="14.25" customHeight="1">
       <c r="G98" s="10"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="7:7" ht="14.25" customHeight="1">
       <c r="G99" s="10"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="7:7" ht="14.25" customHeight="1">
       <c r="G100" s="10"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="7:7" ht="14.25" customHeight="1">
       <c r="G101" s="10"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="7:7" ht="14.25" customHeight="1">
       <c r="G102" s="10"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="7:7" ht="14.25" customHeight="1">
       <c r="G103" s="10"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="7:7" ht="14.25" customHeight="1">
       <c r="G104" s="10"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="7:7" ht="14.25" customHeight="1">
       <c r="G105" s="10"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="7:7" ht="14.25" customHeight="1">
       <c r="G106" s="10"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="7:7" ht="14.25" customHeight="1">
       <c r="G107" s="10"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="7:7" ht="14.25" customHeight="1">
       <c r="G108" s="10"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="7:7" ht="14.25" customHeight="1">
       <c r="G109" s="10"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="7:7" ht="14.25" customHeight="1">
       <c r="G110" s="10"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="7:7" ht="14.25" customHeight="1">
       <c r="G111" s="10"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="7:7" ht="14.25" customHeight="1">
       <c r="G112" s="10"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="7:7" ht="14.25" customHeight="1">
       <c r="G113" s="10"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="7:7" ht="14.25" customHeight="1">
       <c r="G114" s="10"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="7:7" ht="14.25" customHeight="1">
       <c r="G115" s="10"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="7:7" ht="14.25" customHeight="1">
       <c r="G116" s="10"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="7:7" ht="14.25" customHeight="1">
       <c r="G117" s="10"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="7:7" ht="14.25" customHeight="1">
       <c r="G118" s="10"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="7:7" ht="14.25" customHeight="1">
       <c r="G119" s="10"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="7:7" ht="14.25" customHeight="1">
       <c r="G120" s="10"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="7:7" ht="14.25" customHeight="1">
       <c r="G121" s="10"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="7:7" ht="14.25" customHeight="1">
       <c r="G122" s="10"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="7:7" ht="14.25" customHeight="1">
       <c r="G123" s="10"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="7:7" ht="14.25" customHeight="1">
       <c r="G124" s="10"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="7:7" ht="14.25" customHeight="1">
       <c r="G125" s="10"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="7:7" ht="14.25" customHeight="1">
       <c r="G126" s="10"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="7:7" ht="14.25" customHeight="1">
       <c r="G127" s="10"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="7:7" ht="14.25" customHeight="1">
       <c r="G128" s="10"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="7:7" ht="14.25" customHeight="1">
       <c r="G129" s="10"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="7:7" ht="14.25" customHeight="1">
       <c r="G130" s="10"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="7:7" ht="14.25" customHeight="1">
       <c r="G131" s="10"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="7:7" ht="14.25" customHeight="1">
       <c r="G132" s="10"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="7:7" ht="14.25" customHeight="1">
       <c r="G133" s="10"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="7:7" ht="14.25" customHeight="1">
       <c r="G134" s="10"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="7:7" ht="14.25" customHeight="1">
       <c r="G135" s="10"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="7:7" ht="14.25" customHeight="1">
       <c r="G136" s="10"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="7:7" ht="14.25" customHeight="1">
       <c r="G137" s="10"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="7:7" ht="14.25" customHeight="1">
       <c r="G138" s="10"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="7:7" ht="14.25" customHeight="1">
       <c r="G139" s="10"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="7:7" ht="14.25" customHeight="1">
       <c r="G140" s="10"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="7:7" ht="14.25" customHeight="1">
       <c r="G141" s="10"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="7:7" ht="14.25" customHeight="1">
       <c r="G142" s="10"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="7:7" ht="14.25" customHeight="1">
       <c r="G143" s="10"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="7:7" ht="14.25" customHeight="1">
       <c r="G144" s="10"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="7:7" ht="14.25" customHeight="1">
       <c r="G145" s="10"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="7:7" ht="14.25" customHeight="1">
       <c r="G146" s="10"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="7:7" ht="14.25" customHeight="1">
       <c r="G147" s="10"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="7:7" ht="14.25" customHeight="1">
       <c r="G148" s="10"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="7:7" ht="14.25" customHeight="1">
       <c r="G149" s="10"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="7:7" ht="14.25" customHeight="1">
       <c r="G150" s="10"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="7:7" ht="14.25" customHeight="1">
       <c r="G151" s="10"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="7:7" ht="14.25" customHeight="1">
       <c r="G152" s="10"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="7:7" ht="14.25" customHeight="1">
       <c r="G153" s="10"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="7:7" ht="14.25" customHeight="1">
       <c r="G154" s="10"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="7:7" ht="14.25" customHeight="1">
       <c r="G155" s="10"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="7:7" ht="14.25" customHeight="1">
       <c r="G156" s="10"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="7:7" ht="14.25" customHeight="1">
       <c r="G157" s="10"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="7:7" ht="14.25" customHeight="1">
       <c r="G158" s="10"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="7:7" ht="14.25" customHeight="1">
       <c r="G159" s="10"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="7:7" ht="14.25" customHeight="1">
       <c r="G160" s="10"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="7:7" ht="14.25" customHeight="1">
       <c r="G161" s="10"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="7:7" ht="14.25" customHeight="1">
       <c r="G162" s="10"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="7:7" ht="14.25" customHeight="1">
       <c r="G163" s="10"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="7:7" ht="14.25" customHeight="1">
       <c r="G164" s="10"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="7:7" ht="14.25" customHeight="1">
       <c r="G165" s="10"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="7:7" ht="14.25" customHeight="1">
       <c r="G166" s="10"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="7:7" ht="14.25" customHeight="1">
       <c r="G167" s="10"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="7:7" ht="14.25" customHeight="1">
       <c r="G168" s="10"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="7:7" ht="14.25" customHeight="1">
       <c r="G169" s="10"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="7:7" ht="14.25" customHeight="1">
       <c r="G170" s="10"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="7:7" ht="14.25" customHeight="1">
       <c r="G171" s="10"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="7:7" ht="14.25" customHeight="1">
       <c r="G172" s="10"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="7:7" ht="14.25" customHeight="1">
       <c r="G173" s="10"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="7:7" ht="14.25" customHeight="1">
       <c r="G174" s="10"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="7:7" ht="14.25" customHeight="1">
       <c r="G175" s="10"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="7:7" ht="14.25" customHeight="1">
       <c r="G176" s="10"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="7:7" ht="14.25" customHeight="1">
       <c r="G177" s="10"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="7:7" ht="14.25" customHeight="1">
       <c r="G178" s="10"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="7:7" ht="14.25" customHeight="1">
       <c r="G179" s="10"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="7:7" ht="14.25" customHeight="1">
       <c r="G180" s="10"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="7:7" ht="14.25" customHeight="1">
       <c r="G181" s="10"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="7:7" ht="14.25" customHeight="1">
       <c r="G182" s="10"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="7:7" ht="14.25" customHeight="1">
       <c r="G183" s="10"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="7:7" ht="14.25" customHeight="1">
       <c r="G184" s="10"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="7:7" ht="14.25" customHeight="1">
       <c r="G185" s="10"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="7:7" ht="14.25" customHeight="1">
       <c r="G186" s="10"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="7:7" ht="14.25" customHeight="1">
       <c r="G187" s="10"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="7:7" ht="14.25" customHeight="1">
       <c r="G188" s="10"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="7:7" ht="14.25" customHeight="1">
       <c r="G189" s="10"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="7:7" ht="14.25" customHeight="1">
       <c r="G190" s="10"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="7:7" ht="14.25" customHeight="1">
       <c r="G191" s="10"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="7:7" ht="14.25" customHeight="1">
       <c r="G192" s="10"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="7:7" ht="14.25" customHeight="1">
       <c r="G193" s="10"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="7:7" ht="14.25" customHeight="1">
       <c r="G194" s="10"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="7:7" ht="14.25" customHeight="1">
       <c r="G195" s="10"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="7:7" ht="14.25" customHeight="1">
       <c r="G196" s="10"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="7:7" ht="14.25" customHeight="1">
       <c r="G197" s="10"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="7:7" ht="14.25" customHeight="1">
       <c r="G198" s="10"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="7:7" ht="14.25" customHeight="1">
       <c r="G199" s="10"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="7:7" ht="14.25" customHeight="1">
       <c r="G200" s="10"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="7:7" ht="14.25" customHeight="1">
       <c r="G201" s="10"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="7:7" ht="14.25" customHeight="1">
       <c r="G202" s="10"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="7:7" ht="14.25" customHeight="1">
       <c r="G203" s="10"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="7:7" ht="14.25" customHeight="1">
       <c r="G204" s="10"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="7:7" ht="14.25" customHeight="1">
       <c r="G205" s="10"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="7:7" ht="14.25" customHeight="1">
       <c r="G206" s="10"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="7:7" ht="14.25" customHeight="1">
       <c r="G207" s="10"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="7:7" ht="14.25" customHeight="1">
       <c r="G208" s="10"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="7:7" ht="14.25" customHeight="1">
       <c r="G209" s="10"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="7:7" ht="14.25" customHeight="1">
       <c r="G210" s="10"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="7:7" ht="14.25" customHeight="1">
       <c r="G211" s="10"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="7:7" ht="14.25" customHeight="1">
       <c r="G212" s="10"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="7:7" ht="14.25" customHeight="1">
       <c r="G213" s="10"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="7:7" ht="14.25" customHeight="1">
       <c r="G214" s="10"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="7:7" ht="14.25" customHeight="1">
       <c r="G215" s="10"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="7:7" ht="14.25" customHeight="1">
       <c r="G216" s="10"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="7:7" ht="14.25" customHeight="1">
       <c r="G217" s="10"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="7:7" ht="14.25" customHeight="1">
       <c r="G218" s="10"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="7:7" ht="14.25" customHeight="1">
       <c r="G219" s="10"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="7:7" ht="14.25" customHeight="1">
       <c r="G220" s="10"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="7:7" ht="14.25" customHeight="1">
       <c r="G221" s="10"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="7:7" ht="14.25" customHeight="1">
       <c r="G222" s="10"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="7:7" ht="14.25" customHeight="1">
       <c r="G223" s="10"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="7:7" ht="14.25" customHeight="1">
       <c r="G224" s="10"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="7:7" ht="14.25" customHeight="1">
       <c r="G225" s="10"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="7:7" ht="14.25" customHeight="1">
       <c r="G226" s="10"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="7:7" ht="14.25" customHeight="1">
       <c r="G227" s="10"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="7:7" ht="14.25" customHeight="1">
       <c r="G228" s="10"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="7:7" ht="14.25" customHeight="1">
       <c r="G229" s="10"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="7:7" ht="14.25" customHeight="1">
       <c r="G230" s="10"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="7:7" ht="14.25" customHeight="1">
       <c r="G231" s="10"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="7:7" ht="14.25" customHeight="1">
       <c r="G232" s="10"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="7:7" ht="14.25" customHeight="1">
       <c r="G233" s="10"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="7:7" ht="14.25" customHeight="1">
       <c r="G234" s="10"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="7:7" ht="14.25" customHeight="1">
       <c r="G235" s="10"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="7:7" ht="14.25" customHeight="1">
       <c r="G236" s="10"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="7:7" ht="14.25" customHeight="1">
       <c r="G237" s="10"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="7:7" ht="14.25" customHeight="1">
       <c r="G238" s="10"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="7:7" ht="14.25" customHeight="1">
       <c r="G239" s="10"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="7:7" ht="14.25" customHeight="1">
       <c r="G240" s="10"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="7:7" ht="14.25" customHeight="1">
       <c r="G241" s="10"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="7:7" ht="14.25" customHeight="1">
       <c r="G242" s="10"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="7:7" ht="14.25" customHeight="1">
       <c r="G243" s="10"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="7:7" ht="14.25" customHeight="1">
       <c r="G244" s="10"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="7:7" ht="14.25" customHeight="1">
       <c r="G245" s="10"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="7:7" ht="14.25" customHeight="1">
       <c r="G246" s="10"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="7:7" ht="14.25" customHeight="1">
       <c r="G247" s="10"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="7:7" ht="14.25" customHeight="1">
       <c r="G248" s="10"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="7:7" ht="14.25" customHeight="1">
       <c r="G249" s="10"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="7:7" ht="14.25" customHeight="1">
       <c r="G250" s="10"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="7:7" ht="14.25" customHeight="1">
       <c r="G251" s="10"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="7:7" ht="14.25" customHeight="1">
       <c r="G252" s="10"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="7:7" ht="14.25" customHeight="1">
       <c r="G253" s="10"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="7:7" ht="14.25" customHeight="1">
       <c r="G254" s="10"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="7:7" ht="14.25" customHeight="1">
       <c r="G255" s="10"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="7:7" ht="14.25" customHeight="1">
       <c r="G256" s="10"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="7:7" ht="14.25" customHeight="1">
       <c r="G257" s="10"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="7:7" ht="14.25" customHeight="1">
       <c r="G258" s="10"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="7:7" ht="14.25" customHeight="1">
       <c r="G259" s="10"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="7:7" ht="14.25" customHeight="1">
       <c r="G260" s="10"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="7:7" ht="14.25" customHeight="1">
       <c r="G261" s="10"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="7:7" ht="14.25" customHeight="1">
       <c r="G262" s="10"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="7:7" ht="14.25" customHeight="1">
       <c r="G263" s="10"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="7:7" ht="14.25" customHeight="1">
       <c r="G264" s="10"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="7:7" ht="14.25" customHeight="1">
       <c r="G265" s="10"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="7:7" ht="14.25" customHeight="1">
       <c r="G266" s="10"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="7:7" ht="14.25" customHeight="1">
       <c r="G267" s="10"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="7:7" ht="14.25" customHeight="1">
       <c r="G268" s="10"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="7:7" ht="14.25" customHeight="1">
       <c r="G269" s="10"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="7:7" ht="14.25" customHeight="1">
       <c r="G270" s="10"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="7:7" ht="14.25" customHeight="1">
       <c r="G271" s="10"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="7:7" ht="14.25" customHeight="1">
       <c r="G272" s="10"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="7:7" ht="14.25" customHeight="1">
       <c r="G273" s="10"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="7:7" ht="14.25" customHeight="1">
       <c r="G274" s="10"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="7:7" ht="14.25" customHeight="1">
       <c r="G275" s="10"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="7:7" ht="14.25" customHeight="1">
       <c r="G276" s="10"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="7:7" ht="14.25" customHeight="1">
       <c r="G277" s="10"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="7:7" ht="14.25" customHeight="1">
       <c r="G278" s="10"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="7:7" ht="14.25" customHeight="1">
       <c r="G279" s="10"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="7:7" ht="14.25" customHeight="1">
       <c r="G280" s="10"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="7:7" ht="14.25" customHeight="1">
       <c r="G281" s="10"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="7:7" ht="14.25" customHeight="1">
       <c r="G282" s="10"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="7:7" ht="14.25" customHeight="1">
       <c r="G283" s="10"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="7:7" ht="14.25" customHeight="1">
       <c r="G284" s="10"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="7:7" ht="14.25" customHeight="1">
       <c r="G285" s="10"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="7:7" ht="14.25" customHeight="1">
       <c r="G286" s="10"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="7:7" ht="14.25" customHeight="1">
       <c r="G287" s="10"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="7:7" ht="14.25" customHeight="1">
       <c r="G288" s="10"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="7:7" ht="14.25" customHeight="1">
       <c r="G289" s="10"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="7:7" ht="14.25" customHeight="1">
       <c r="G290" s="10"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="7:7" ht="14.25" customHeight="1">
       <c r="G291" s="10"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="7:7" ht="14.25" customHeight="1">
       <c r="G292" s="10"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="7:7" ht="14.25" customHeight="1">
       <c r="G293" s="10"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="7:7" ht="14.25" customHeight="1">
       <c r="G294" s="10"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="7:7" ht="14.25" customHeight="1">
       <c r="G295" s="10"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="7:7" ht="14.25" customHeight="1">
       <c r="G296" s="10"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="7:7" ht="14.25" customHeight="1">
       <c r="G297" s="10"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="7:7" ht="14.25" customHeight="1">
       <c r="G298" s="10"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="7:7" ht="14.25" customHeight="1">
       <c r="G299" s="10"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="7:7" ht="14.25" customHeight="1">
       <c r="G300" s="10"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="7:7" ht="14.25" customHeight="1">
       <c r="G301" s="10"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="7:7" ht="14.25" customHeight="1">
       <c r="G302" s="10"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="7:7" ht="14.25" customHeight="1">
       <c r="G303" s="10"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="7:7" ht="14.25" customHeight="1">
       <c r="G304" s="10"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="7:7" ht="14.25" customHeight="1">
       <c r="G305" s="10"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="7:7" ht="14.25" customHeight="1">
       <c r="G306" s="10"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="7:7" ht="14.25" customHeight="1">
       <c r="G307" s="10"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="7:7" ht="14.25" customHeight="1">
       <c r="G308" s="10"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="7:7" ht="14.25" customHeight="1">
       <c r="G309" s="10"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="7:7" ht="14.25" customHeight="1">
       <c r="G310" s="10"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="7:7" ht="14.25" customHeight="1">
       <c r="G311" s="10"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="7:7" ht="14.25" customHeight="1">
       <c r="G312" s="10"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="7:7" ht="14.25" customHeight="1">
       <c r="G313" s="10"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="7:7" ht="14.25" customHeight="1">
       <c r="G314" s="10"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="7:7" ht="14.25" customHeight="1">
       <c r="G315" s="10"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="7:7" ht="14.25" customHeight="1">
       <c r="G316" s="10"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="7:7" ht="14.25" customHeight="1">
       <c r="G317" s="10"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="7:7" ht="14.25" customHeight="1">
       <c r="G318" s="10"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="7:7" ht="14.25" customHeight="1">
       <c r="G319" s="10"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="7:7" ht="14.25" customHeight="1">
       <c r="G320" s="10"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="7:7" ht="14.25" customHeight="1">
       <c r="G321" s="10"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="7:7" ht="14.25" customHeight="1">
       <c r="G322" s="10"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="7:7" ht="14.25" customHeight="1">
       <c r="G323" s="10"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="7:7" ht="14.25" customHeight="1">
       <c r="G324" s="10"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="7:7" ht="14.25" customHeight="1">
       <c r="G325" s="10"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="7:7" ht="14.25" customHeight="1">
       <c r="G326" s="10"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="7:7" ht="14.25" customHeight="1">
       <c r="G327" s="10"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="7:7" ht="14.25" customHeight="1">
       <c r="G328" s="10"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="7:7" ht="14.25" customHeight="1">
       <c r="G329" s="10"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="7:7" ht="14.25" customHeight="1">
       <c r="G330" s="10"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="7:7" ht="14.25" customHeight="1">
       <c r="G331" s="10"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="7:7" ht="14.25" customHeight="1">
       <c r="G332" s="10"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="7:7" ht="14.25" customHeight="1">
       <c r="G333" s="10"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="7:7" ht="14.25" customHeight="1">
       <c r="G334" s="10"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="7:7" ht="14.25" customHeight="1">
       <c r="G335" s="10"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="7:7" ht="14.25" customHeight="1">
       <c r="G336" s="10"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="7:7" ht="14.25" customHeight="1">
       <c r="G337" s="10"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="7:7" ht="14.25" customHeight="1">
       <c r="G338" s="10"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="7:7" ht="14.25" customHeight="1">
       <c r="G339" s="10"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="7:7" ht="14.25" customHeight="1">
       <c r="G340" s="10"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="7:7" ht="14.25" customHeight="1">
       <c r="G341" s="10"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="7:7" ht="14.25" customHeight="1">
       <c r="G342" s="10"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="7:7" ht="14.25" customHeight="1">
       <c r="G343" s="10"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="7:7" ht="14.25" customHeight="1">
       <c r="G344" s="10"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="7:7" ht="14.25" customHeight="1">
       <c r="G345" s="10"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="7:7" ht="14.25" customHeight="1">
       <c r="G346" s="10"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="7:7" ht="14.25" customHeight="1">
       <c r="G347" s="10"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="7:7" ht="14.25" customHeight="1">
       <c r="G348" s="10"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="7:7" ht="14.25" customHeight="1">
       <c r="G349" s="10"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="7:7" ht="14.25" customHeight="1">
       <c r="G350" s="10"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="7:7" ht="14.25" customHeight="1">
       <c r="G351" s="10"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="7:7" ht="14.25" customHeight="1">
       <c r="G352" s="10"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="7:7" ht="14.25" customHeight="1">
       <c r="G353" s="10"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="7:7" ht="14.25" customHeight="1">
       <c r="G354" s="10"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="7:7" ht="14.25" customHeight="1">
       <c r="G355" s="10"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="7:7" ht="14.25" customHeight="1">
       <c r="G356" s="10"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="7:7" ht="14.25" customHeight="1">
       <c r="G357" s="10"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="7:7" ht="14.25" customHeight="1">
       <c r="G358" s="10"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="7:7" ht="14.25" customHeight="1">
       <c r="G359" s="10"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="7:7" ht="14.25" customHeight="1">
       <c r="G360" s="10"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="7:7" ht="14.25" customHeight="1">
       <c r="G361" s="10"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="7:7" ht="14.25" customHeight="1">
       <c r="G362" s="10"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="7:7" ht="14.25" customHeight="1">
       <c r="G363" s="10"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="7:7" ht="14.25" customHeight="1">
       <c r="G364" s="10"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="7:7" ht="14.25" customHeight="1">
       <c r="G365" s="10"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="7:7" ht="14.25" customHeight="1">
       <c r="G366" s="10"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="7:7" ht="14.25" customHeight="1">
       <c r="G367" s="10"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="7:7" ht="14.25" customHeight="1">
       <c r="G368" s="10"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="7:7" ht="14.25" customHeight="1">
       <c r="G369" s="10"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="7:7" ht="14.25" customHeight="1">
       <c r="G370" s="10"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="7:7" ht="14.25" customHeight="1">
       <c r="G371" s="10"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="7:7" ht="14.25" customHeight="1">
       <c r="G372" s="10"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="7:7" ht="14.25" customHeight="1">
       <c r="G373" s="10"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="7:7" ht="14.25" customHeight="1">
       <c r="G374" s="10"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="7:7" ht="14.25" customHeight="1">
       <c r="G375" s="10"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="7:7" ht="14.25" customHeight="1">
       <c r="G376" s="10"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="7:7" ht="14.25" customHeight="1">
       <c r="G377" s="10"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="7:7" ht="14.25" customHeight="1">
       <c r="G378" s="10"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="7:7" ht="14.25" customHeight="1">
       <c r="G379" s="10"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="7:7" ht="14.25" customHeight="1">
       <c r="G380" s="10"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="7:7" ht="14.25" customHeight="1">
       <c r="G381" s="10"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="7:7" ht="14.25" customHeight="1">
       <c r="G382" s="10"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="7:7" ht="14.25" customHeight="1">
       <c r="G383" s="10"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="7:7" ht="14.25" customHeight="1">
       <c r="G384" s="10"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="7:7" ht="14.25" customHeight="1">
       <c r="G385" s="10"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="7:7" ht="14.25" customHeight="1">
       <c r="G386" s="10"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="7:7" ht="14.25" customHeight="1">
       <c r="G387" s="10"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="7:7" ht="14.25" customHeight="1">
       <c r="G388" s="10"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="7:7" ht="14.25" customHeight="1">
       <c r="G389" s="10"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="7:7" ht="14.25" customHeight="1">
       <c r="G390" s="10"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="7:7" ht="14.25" customHeight="1">
       <c r="G391" s="10"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="7:7" ht="14.25" customHeight="1">
       <c r="G392" s="10"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="7:7" ht="14.25" customHeight="1">
       <c r="G393" s="10"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="7:7" ht="14.25" customHeight="1">
       <c r="G394" s="10"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="7:7" ht="14.25" customHeight="1">
       <c r="G395" s="10"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="7:7" ht="14.25" customHeight="1">
       <c r="G396" s="10"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="7:7" ht="14.25" customHeight="1">
       <c r="G397" s="10"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="7:7" ht="14.25" customHeight="1">
       <c r="G398" s="10"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="7:7" ht="14.25" customHeight="1">
       <c r="G399" s="10"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="7:7" ht="14.25" customHeight="1">
       <c r="G400" s="10"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="7:7" ht="14.25" customHeight="1">
       <c r="G401" s="10"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="7:7" ht="14.25" customHeight="1">
       <c r="G402" s="10"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="7:7" ht="14.25" customHeight="1">
       <c r="G403" s="10"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="7:7" ht="14.25" customHeight="1">
       <c r="G404" s="10"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="7:7" ht="14.25" customHeight="1">
       <c r="G405" s="10"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="7:7" ht="14.25" customHeight="1">
       <c r="G406" s="10"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="7:7" ht="14.25" customHeight="1">
       <c r="G407" s="10"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="7:7" ht="14.25" customHeight="1">
       <c r="G408" s="10"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="7:7" ht="14.25" customHeight="1">
       <c r="G409" s="10"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="7:7" ht="14.25" customHeight="1">
       <c r="G410" s="10"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="7:7" ht="14.25" customHeight="1">
       <c r="G411" s="10"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="7:7" ht="14.25" customHeight="1">
       <c r="G412" s="10"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="7:7" ht="14.25" customHeight="1">
       <c r="G413" s="10"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="7:7" ht="14.25" customHeight="1">
       <c r="G414" s="10"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="7:7" ht="14.25" customHeight="1">
       <c r="G415" s="10"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="7:7" ht="14.25" customHeight="1">
       <c r="G416" s="10"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="7:7" ht="14.25" customHeight="1">
       <c r="G417" s="10"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="7:7" ht="14.25" customHeight="1">
       <c r="G418" s="10"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="7:7" ht="14.25" customHeight="1">
       <c r="G419" s="10"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="7:7" ht="14.25" customHeight="1">
       <c r="G420" s="10"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="7:7" ht="14.25" customHeight="1">
       <c r="G421" s="10"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="7:7" ht="14.25" customHeight="1">
       <c r="G422" s="10"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="7:7" ht="14.25" customHeight="1">
       <c r="G423" s="10"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="7:7" ht="14.25" customHeight="1">
       <c r="G424" s="10"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="7:7" ht="14.25" customHeight="1">
       <c r="G425" s="10"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="7:7" ht="14.25" customHeight="1">
       <c r="G426" s="10"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="7:7" ht="14.25" customHeight="1">
       <c r="G427" s="10"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="7:7" ht="14.25" customHeight="1">
       <c r="G428" s="10"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="7:7" ht="14.25" customHeight="1">
       <c r="G429" s="10"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="7:7" ht="14.25" customHeight="1">
       <c r="G430" s="10"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="7:7" ht="14.25" customHeight="1">
       <c r="G431" s="10"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="7:7" ht="14.25" customHeight="1">
       <c r="G432" s="10"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="7:7" ht="14.25" customHeight="1">
       <c r="G433" s="10"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="7:7" ht="14.25" customHeight="1">
       <c r="G434" s="10"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="7:7" ht="14.25" customHeight="1">
       <c r="G435" s="10"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="7:7" ht="14.25" customHeight="1">
       <c r="G436" s="10"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="7:7" ht="14.25" customHeight="1">
       <c r="G437" s="10"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="7:7" ht="14.25" customHeight="1">
       <c r="G438" s="10"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="7:7" ht="14.25" customHeight="1">
       <c r="G439" s="10"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="7:7" ht="14.25" customHeight="1">
       <c r="G440" s="10"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="7:7" ht="14.25" customHeight="1">
       <c r="G441" s="10"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="7:7" ht="14.25" customHeight="1">
       <c r="G442" s="10"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="7:7" ht="14.25" customHeight="1">
       <c r="G443" s="10"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="7:7" ht="14.25" customHeight="1">
       <c r="G444" s="10"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="7:7" ht="14.25" customHeight="1">
       <c r="G445" s="10"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="7:7" ht="14.25" customHeight="1">
       <c r="G446" s="10"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="7:7" ht="14.25" customHeight="1">
       <c r="G447" s="10"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="7:7" ht="14.25" customHeight="1">
       <c r="G448" s="10"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="7:7" ht="14.25" customHeight="1">
       <c r="G449" s="10"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="7:7" ht="14.25" customHeight="1">
       <c r="G450" s="10"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="7:7" ht="14.25" customHeight="1">
       <c r="G451" s="10"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="7:7" ht="14.25" customHeight="1">
       <c r="G452" s="10"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="7:7" ht="14.25" customHeight="1">
       <c r="G453" s="10"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="7:7" ht="14.25" customHeight="1">
       <c r="G454" s="10"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="7:7" ht="14.25" customHeight="1">
       <c r="G455" s="10"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="7:7" ht="14.25" customHeight="1">
       <c r="G456" s="10"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="7:7" ht="14.25" customHeight="1">
       <c r="G457" s="10"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="7:7" ht="14.25" customHeight="1">
       <c r="G458" s="10"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="7:7" ht="14.25" customHeight="1">
       <c r="G459" s="10"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="7:7" ht="14.25" customHeight="1">
       <c r="G460" s="10"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="7:7" ht="14.25" customHeight="1">
       <c r="G461" s="10"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="7:7" ht="14.25" customHeight="1">
       <c r="G462" s="10"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="7:7" ht="14.25" customHeight="1">
       <c r="G463" s="10"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="7:7" ht="14.25" customHeight="1">
       <c r="G464" s="10"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="7:7" ht="14.25" customHeight="1">
       <c r="G465" s="10"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="7:7" ht="14.25" customHeight="1">
       <c r="G466" s="10"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="7:7" ht="14.25" customHeight="1">
       <c r="G467" s="10"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="7:7" ht="14.25" customHeight="1">
       <c r="G468" s="10"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="7:7" ht="14.25" customHeight="1">
       <c r="G469" s="10"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="7:7" ht="14.25" customHeight="1">
       <c r="G470" s="10"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="7:7" ht="14.25" customHeight="1">
       <c r="G471" s="10"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="7:7" ht="14.25" customHeight="1">
       <c r="G472" s="10"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="7:7" ht="14.25" customHeight="1">
       <c r="G473" s="10"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="7:7" ht="14.25" customHeight="1">
       <c r="G474" s="10"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="7:7" ht="14.25" customHeight="1">
       <c r="G475" s="10"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="7:7" ht="14.25" customHeight="1">
       <c r="G476" s="10"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="7:7" ht="14.25" customHeight="1">
       <c r="G477" s="10"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="7:7" ht="14.25" customHeight="1">
       <c r="G478" s="10"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="7:7" ht="14.25" customHeight="1">
       <c r="G479" s="10"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="7:7" ht="14.25" customHeight="1">
       <c r="G480" s="10"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="7:7" ht="14.25" customHeight="1">
       <c r="G481" s="10"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="7:7" ht="14.25" customHeight="1">
       <c r="G482" s="10"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="7:7" ht="14.25" customHeight="1">
       <c r="G483" s="10"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="7:7" ht="14.25" customHeight="1">
       <c r="G484" s="10"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="7:7" ht="14.25" customHeight="1">
       <c r="G485" s="10"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="7:7" ht="14.25" customHeight="1">
       <c r="G486" s="10"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="7:7" ht="14.25" customHeight="1">
       <c r="G487" s="10"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="7:7" ht="14.25" customHeight="1">
       <c r="G488" s="10"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="7:7" ht="14.25" customHeight="1">
       <c r="G489" s="10"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="7:7" ht="14.25" customHeight="1">
       <c r="G490" s="10"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="7:7" ht="14.25" customHeight="1">
       <c r="G491" s="10"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="7:7" ht="14.25" customHeight="1">
       <c r="G492" s="10"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="7:7" ht="14.25" customHeight="1">
       <c r="G493" s="10"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="7:7" ht="14.25" customHeight="1">
       <c r="G494" s="10"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="7:7" ht="14.25" customHeight="1">
       <c r="G495" s="10"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="7:7" ht="14.25" customHeight="1">
       <c r="G496" s="10"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="7:7" ht="14.25" customHeight="1">
       <c r="G497" s="10"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="7:7" ht="14.25" customHeight="1">
       <c r="G498" s="10"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="7:7" ht="14.25" customHeight="1">
       <c r="G499" s="10"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="7:7" ht="14.25" customHeight="1">
       <c r="G500" s="10"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="7:7" ht="14.25" customHeight="1">
       <c r="G501" s="10"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="7:7" ht="14.25" customHeight="1">
       <c r="G502" s="10"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="7:7" ht="14.25" customHeight="1">
       <c r="G503" s="10"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="7:7" ht="14.25" customHeight="1">
       <c r="G504" s="10"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="7:7" ht="14.25" customHeight="1">
       <c r="G505" s="10"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="7:7" ht="14.25" customHeight="1">
       <c r="G506" s="10"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="7:7" ht="14.25" customHeight="1">
       <c r="G507" s="10"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="7:7" ht="14.25" customHeight="1">
       <c r="G508" s="10"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="7:7" ht="14.25" customHeight="1">
       <c r="G509" s="10"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="7:7" ht="14.25" customHeight="1">
       <c r="G510" s="10"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="7:7" ht="14.25" customHeight="1">
       <c r="G511" s="10"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="7:7" ht="14.25" customHeight="1">
       <c r="G512" s="10"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="7:7" ht="14.25" customHeight="1">
       <c r="G513" s="10"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="7:7" ht="14.25" customHeight="1">
       <c r="G514" s="10"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="7:7" ht="14.25" customHeight="1">
       <c r="G515" s="10"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="7:7" ht="14.25" customHeight="1">
       <c r="G516" s="10"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="7:7" ht="14.25" customHeight="1">
       <c r="G517" s="10"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="7:7" ht="14.25" customHeight="1">
       <c r="G518" s="10"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="7:7" ht="14.25" customHeight="1">
       <c r="G519" s="10"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="7:7" ht="14.25" customHeight="1">
       <c r="G520" s="10"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="7:7" ht="14.25" customHeight="1">
       <c r="G521" s="10"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="7:7" ht="14.25" customHeight="1">
       <c r="G522" s="10"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="7:7" ht="14.25" customHeight="1">
       <c r="G523" s="10"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="7:7" ht="14.25" customHeight="1">
       <c r="G524" s="10"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="7:7" ht="14.25" customHeight="1">
       <c r="G525" s="10"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="7:7" ht="14.25" customHeight="1">
       <c r="G526" s="10"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="7:7" ht="14.25" customHeight="1">
       <c r="G527" s="10"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="7:7" ht="14.25" customHeight="1">
       <c r="G528" s="10"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="7:7" ht="14.25" customHeight="1">
       <c r="G529" s="10"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="7:7" ht="14.25" customHeight="1">
       <c r="G530" s="10"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="7:7" ht="14.25" customHeight="1">
       <c r="G531" s="10"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="7:7" ht="14.25" customHeight="1">
       <c r="G532" s="10"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="7:7" ht="14.25" customHeight="1">
       <c r="G533" s="10"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="7:7" ht="14.25" customHeight="1">
       <c r="G534" s="10"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="7:7" ht="14.25" customHeight="1">
       <c r="G535" s="10"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="7:7" ht="14.25" customHeight="1">
       <c r="G536" s="10"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="7:7" ht="14.25" customHeight="1">
       <c r="G537" s="10"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="7:7" ht="14.25" customHeight="1">
       <c r="G538" s="10"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="7:7" ht="14.25" customHeight="1">
       <c r="G539" s="10"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="7:7" ht="14.25" customHeight="1">
       <c r="G540" s="10"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="7:7" ht="14.25" customHeight="1">
       <c r="G541" s="10"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="7:7" ht="14.25" customHeight="1">
       <c r="G542" s="10"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="7:7" ht="14.25" customHeight="1">
       <c r="G543" s="10"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="7:7" ht="14.25" customHeight="1">
       <c r="G544" s="10"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="7:7" ht="14.25" customHeight="1">
       <c r="G545" s="10"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="7:7" ht="14.25" customHeight="1">
       <c r="G546" s="10"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="7:7" ht="14.25" customHeight="1">
       <c r="G547" s="10"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="7:7" ht="14.25" customHeight="1">
       <c r="G548" s="10"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="7:7" ht="14.25" customHeight="1">
       <c r="G549" s="10"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="7:7" ht="14.25" customHeight="1">
       <c r="G550" s="10"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="7:7" ht="14.25" customHeight="1">
       <c r="G551" s="10"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="7:7" ht="14.25" customHeight="1">
       <c r="G552" s="10"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="7:7" ht="14.25" customHeight="1">
       <c r="G553" s="10"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="7:7" ht="14.25" customHeight="1">
       <c r="G554" s="10"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="7:7" ht="14.25" customHeight="1">
       <c r="G555" s="10"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="7:7" ht="14.25" customHeight="1">
       <c r="G556" s="10"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="7:7" ht="14.25" customHeight="1">
       <c r="G557" s="10"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="7:7" ht="14.25" customHeight="1">
       <c r="G558" s="10"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="7:7" ht="14.25" customHeight="1">
       <c r="G559" s="10"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="7:7" ht="14.25" customHeight="1">
       <c r="G560" s="10"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="7:7" ht="14.25" customHeight="1">
       <c r="G561" s="10"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="7:7" ht="14.25" customHeight="1">
       <c r="G562" s="10"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="7:7" ht="14.25" customHeight="1">
       <c r="G563" s="10"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="7:7" ht="14.25" customHeight="1">
       <c r="G564" s="10"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="7:7" ht="14.25" customHeight="1">
       <c r="G565" s="10"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="7:7" ht="14.25" customHeight="1">
       <c r="G566" s="10"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="7:7" ht="14.25" customHeight="1">
       <c r="G567" s="10"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="7:7" ht="14.25" customHeight="1">
       <c r="G568" s="10"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="7:7" ht="14.25" customHeight="1">
       <c r="G569" s="10"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="7:7" ht="14.25" customHeight="1">
       <c r="G570" s="10"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="7:7" ht="14.25" customHeight="1">
       <c r="G571" s="10"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="7:7" ht="14.25" customHeight="1">
       <c r="G572" s="10"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="7:7" ht="14.25" customHeight="1">
       <c r="G573" s="10"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="7:7" ht="14.25" customHeight="1">
       <c r="G574" s="10"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="7:7" ht="14.25" customHeight="1">
       <c r="G575" s="10"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="7:7" ht="14.25" customHeight="1">
       <c r="G576" s="10"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="7:7" ht="14.25" customHeight="1">
       <c r="G577" s="10"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="7:7" ht="14.25" customHeight="1">
       <c r="G578" s="10"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="7:7" ht="14.25" customHeight="1">
       <c r="G579" s="10"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="7:7" ht="14.25" customHeight="1">
       <c r="G580" s="10"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="7:7" ht="14.25" customHeight="1">
       <c r="G581" s="10"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="7:7" ht="14.25" customHeight="1">
       <c r="G582" s="10"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="7:7" ht="14.25" customHeight="1">
       <c r="G583" s="10"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="7:7" ht="14.25" customHeight="1">
       <c r="G584" s="10"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="7:7" ht="14.25" customHeight="1">
       <c r="G585" s="10"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="7:7" ht="14.25" customHeight="1">
       <c r="G586" s="10"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="7:7" ht="14.25" customHeight="1">
       <c r="G587" s="10"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="7:7" ht="14.25" customHeight="1">
       <c r="G588" s="10"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="7:7" ht="14.25" customHeight="1">
       <c r="G589" s="10"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="7:7" ht="14.25" customHeight="1">
       <c r="G590" s="10"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="7:7" ht="14.25" customHeight="1">
       <c r="G591" s="10"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="7:7" ht="14.25" customHeight="1">
       <c r="G592" s="10"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="7:7" ht="14.25" customHeight="1">
       <c r="G593" s="10"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="7:7" ht="14.25" customHeight="1">
       <c r="G594" s="10"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="7:7" ht="14.25" customHeight="1">
       <c r="G595" s="10"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="7:7" ht="14.25" customHeight="1">
       <c r="G596" s="10"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="7:7" ht="14.25" customHeight="1">
       <c r="G597" s="10"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="7:7" ht="14.25" customHeight="1">
       <c r="G598" s="10"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="7:7" ht="14.25" customHeight="1">
       <c r="G599" s="10"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="7:7" ht="14.25" customHeight="1">
       <c r="G600" s="10"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="7:7" ht="14.25" customHeight="1">
       <c r="G601" s="10"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="7:7" ht="14.25" customHeight="1">
       <c r="G602" s="10"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="7:7" ht="14.25" customHeight="1">
       <c r="G603" s="10"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="7:7" ht="14.25" customHeight="1">
       <c r="G604" s="10"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="7:7" ht="14.25" customHeight="1">
       <c r="G605" s="10"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="7:7" ht="14.25" customHeight="1">
       <c r="G606" s="10"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="7:7" ht="14.25" customHeight="1">
       <c r="G607" s="10"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="7:7" ht="14.25" customHeight="1">
       <c r="G608" s="10"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="7:7" ht="14.25" customHeight="1">
       <c r="G609" s="10"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="7:7" ht="14.25" customHeight="1">
       <c r="G610" s="10"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="7:7" ht="14.25" customHeight="1">
       <c r="G611" s="10"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="7:7" ht="14.25" customHeight="1">
       <c r="G612" s="10"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="7:7" ht="14.25" customHeight="1">
       <c r="G613" s="10"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="7:7" ht="14.25" customHeight="1">
       <c r="G614" s="10"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="7:7" ht="14.25" customHeight="1">
       <c r="G615" s="10"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="7:7" ht="14.25" customHeight="1">
       <c r="G616" s="10"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="7:7" ht="14.25" customHeight="1">
       <c r="G617" s="10"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="7:7" ht="14.25" customHeight="1">
       <c r="G618" s="10"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="7:7" ht="14.25" customHeight="1">
       <c r="G619" s="10"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="7:7" ht="14.25" customHeight="1">
       <c r="G620" s="10"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="7:7" ht="14.25" customHeight="1">
       <c r="G621" s="10"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="7:7" ht="14.25" customHeight="1">
       <c r="G622" s="10"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="7:7" ht="14.25" customHeight="1">
       <c r="G623" s="10"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="7:7" ht="14.25" customHeight="1">
       <c r="G624" s="10"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="7:7" ht="14.25" customHeight="1">
       <c r="G625" s="10"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="7:7" ht="14.25" customHeight="1">
       <c r="G626" s="10"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="7:7" ht="14.25" customHeight="1">
       <c r="G627" s="10"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="7:7" ht="14.25" customHeight="1">
       <c r="G628" s="10"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="7:7" ht="14.25" customHeight="1">
       <c r="G629" s="10"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="7:7" ht="14.25" customHeight="1">
       <c r="G630" s="10"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="7:7" ht="14.25" customHeight="1">
       <c r="G631" s="10"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="7:7" ht="14.25" customHeight="1">
       <c r="G632" s="10"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="7:7" ht="14.25" customHeight="1">
       <c r="G633" s="10"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="7:7" ht="14.25" customHeight="1">
       <c r="G634" s="10"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="7:7" ht="14.25" customHeight="1">
       <c r="G635" s="10"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="7:7" ht="14.25" customHeight="1">
       <c r="G636" s="10"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="7:7" ht="14.25" customHeight="1">
       <c r="G637" s="10"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="7:7" ht="14.25" customHeight="1">
       <c r="G638" s="10"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="7:7" ht="14.25" customHeight="1">
       <c r="G639" s="10"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="7:7" ht="14.25" customHeight="1">
       <c r="G640" s="10"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="7:7" ht="14.25" customHeight="1">
       <c r="G641" s="10"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="7:7" ht="14.25" customHeight="1">
       <c r="G642" s="10"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="7:7" ht="14.25" customHeight="1">
       <c r="G643" s="10"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="7:7" ht="14.25" customHeight="1">
       <c r="G644" s="10"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="7:7" ht="14.25" customHeight="1">
       <c r="G645" s="10"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="7:7" ht="14.25" customHeight="1">
       <c r="G646" s="10"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="7:7" ht="14.25" customHeight="1">
       <c r="G647" s="10"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="7:7" ht="14.25" customHeight="1">
       <c r="G648" s="10"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="7:7" ht="14.25" customHeight="1">
       <c r="G649" s="10"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="7:7" ht="14.25" customHeight="1">
       <c r="G650" s="10"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="7:7" ht="14.25" customHeight="1">
       <c r="G651" s="10"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="7:7" ht="14.25" customHeight="1">
       <c r="G652" s="10"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="7:7" ht="14.25" customHeight="1">
       <c r="G653" s="10"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="7:7" ht="14.25" customHeight="1">
       <c r="G654" s="10"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="7:7" ht="14.25" customHeight="1">
       <c r="G655" s="10"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="7:7" ht="14.25" customHeight="1">
       <c r="G656" s="10"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="7:7" ht="14.25" customHeight="1">
       <c r="G657" s="10"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="7:7" ht="14.25" customHeight="1">
       <c r="G658" s="10"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="7:7" ht="14.25" customHeight="1">
       <c r="G659" s="10"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="7:7" ht="14.25" customHeight="1">
       <c r="G660" s="10"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="7:7" ht="14.25" customHeight="1">
       <c r="G661" s="10"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="7:7" ht="14.25" customHeight="1">
       <c r="G662" s="10"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="7:7" ht="14.25" customHeight="1">
       <c r="G663" s="10"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="7:7" ht="14.25" customHeight="1">
       <c r="G664" s="10"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="7:7" ht="14.25" customHeight="1">
       <c r="G665" s="10"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="7:7" ht="14.25" customHeight="1">
       <c r="G666" s="10"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="7:7" ht="14.25" customHeight="1">
       <c r="G667" s="10"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="7:7" ht="14.25" customHeight="1">
       <c r="G668" s="10"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="7:7" ht="14.25" customHeight="1">
       <c r="G669" s="10"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="7:7" ht="14.25" customHeight="1">
       <c r="G670" s="10"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="7:7" ht="14.25" customHeight="1">
       <c r="G671" s="10"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="7:7" ht="14.25" customHeight="1">
       <c r="G672" s="10"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="7:7" ht="14.25" customHeight="1">
       <c r="G673" s="10"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="7:7" ht="14.25" customHeight="1">
       <c r="G674" s="10"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="7:7" ht="14.25" customHeight="1">
       <c r="G675" s="10"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="7:7" ht="14.25" customHeight="1">
       <c r="G676" s="10"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="7:7" ht="14.25" customHeight="1">
       <c r="G677" s="10"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="7:7" ht="14.25" customHeight="1">
       <c r="G678" s="10"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="7:7" ht="14.25" customHeight="1">
       <c r="G679" s="10"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="7:7" ht="14.25" customHeight="1">
       <c r="G680" s="10"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="7:7" ht="14.25" customHeight="1">
       <c r="G681" s="10"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="7:7" ht="14.25" customHeight="1">
       <c r="G682" s="10"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="7:7" ht="14.25" customHeight="1">
       <c r="G683" s="10"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="7:7" ht="14.25" customHeight="1">
       <c r="G684" s="10"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="7:7" ht="14.25" customHeight="1">
       <c r="G685" s="10"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="7:7" ht="14.25" customHeight="1">
       <c r="G686" s="10"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="7:7" ht="14.25" customHeight="1">
       <c r="G687" s="10"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="7:7" ht="14.25" customHeight="1">
       <c r="G688" s="10"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="7:7" ht="14.25" customHeight="1">
       <c r="G689" s="10"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="7:7" ht="14.25" customHeight="1">
       <c r="G690" s="10"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="7:7" ht="14.25" customHeight="1">
       <c r="G691" s="10"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="7:7" ht="14.25" customHeight="1">
       <c r="G692" s="10"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="7:7" ht="14.25" customHeight="1">
       <c r="G693" s="10"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="7:7" ht="14.25" customHeight="1">
       <c r="G694" s="10"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="7:7" ht="14.25" customHeight="1">
       <c r="G695" s="10"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="7:7" ht="14.25" customHeight="1">
       <c r="G696" s="10"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="7:7" ht="14.25" customHeight="1">
       <c r="G697" s="10"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="7:7" ht="14.25" customHeight="1">
       <c r="G698" s="10"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="7:7" ht="14.25" customHeight="1">
       <c r="G699" s="10"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="7:7" ht="14.25" customHeight="1">
       <c r="G700" s="10"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="7:7" ht="14.25" customHeight="1">
       <c r="G701" s="10"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="7:7" ht="14.25" customHeight="1">
       <c r="G702" s="10"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="7:7" ht="14.25" customHeight="1">
       <c r="G703" s="10"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="7:7" ht="14.25" customHeight="1">
       <c r="G704" s="10"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="7:7" ht="14.25" customHeight="1">
       <c r="G705" s="10"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="7:7" ht="14.25" customHeight="1">
       <c r="G706" s="10"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="7:7" ht="14.25" customHeight="1">
       <c r="G707" s="10"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="7:7" ht="14.25" customHeight="1">
       <c r="G708" s="10"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="7:7" ht="14.25" customHeight="1">
       <c r="G709" s="10"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="7:7" ht="14.25" customHeight="1">
       <c r="G710" s="10"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="7:7" ht="14.25" customHeight="1">
       <c r="G711" s="10"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="7:7" ht="14.25" customHeight="1">
       <c r="G712" s="10"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="7:7" ht="14.25" customHeight="1">
       <c r="G713" s="10"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="7:7" ht="14.25" customHeight="1">
       <c r="G714" s="10"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="7:7" ht="14.25" customHeight="1">
       <c r="G715" s="10"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="7:7" ht="14.25" customHeight="1">
       <c r="G716" s="10"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="7:7" ht="14.25" customHeight="1">
       <c r="G717" s="10"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="7:7" ht="14.25" customHeight="1">
       <c r="G718" s="10"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="7:7" ht="14.25" customHeight="1">
       <c r="G719" s="10"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="7:7" ht="14.25" customHeight="1">
       <c r="G720" s="10"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="7:7" ht="14.25" customHeight="1">
       <c r="G721" s="10"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="7:7" ht="14.25" customHeight="1">
       <c r="G722" s="10"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="7:7" ht="14.25" customHeight="1">
       <c r="G723" s="10"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="7:7" ht="14.25" customHeight="1">
       <c r="G724" s="10"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="7:7" ht="14.25" customHeight="1">
       <c r="G725" s="10"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="7:7" ht="14.25" customHeight="1">
       <c r="G726" s="10"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="7:7" ht="14.25" customHeight="1">
       <c r="G727" s="10"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="7:7" ht="14.25" customHeight="1">
       <c r="G728" s="10"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="7:7" ht="14.25" customHeight="1">
       <c r="G729" s="10"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="7:7" ht="14.25" customHeight="1">
       <c r="G730" s="10"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="7:7" ht="14.25" customHeight="1">
       <c r="G731" s="10"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="7:7" ht="14.25" customHeight="1">
       <c r="G732" s="10"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="7:7" ht="14.25" customHeight="1">
       <c r="G733" s="10"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="7:7" ht="14.25" customHeight="1">
       <c r="G734" s="10"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="7:7" ht="14.25" customHeight="1">
       <c r="G735" s="10"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="7:7" ht="14.25" customHeight="1">
       <c r="G736" s="10"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="7:7" ht="14.25" customHeight="1">
       <c r="G737" s="10"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="7:7" ht="14.25" customHeight="1">
       <c r="G738" s="10"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="7:7" ht="14.25" customHeight="1">
       <c r="G739" s="10"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="7:7" ht="14.25" customHeight="1">
       <c r="G740" s="10"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="7:7" ht="14.25" customHeight="1">
       <c r="G741" s="10"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="7:7" ht="14.25" customHeight="1">
       <c r="G742" s="10"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="7:7" ht="14.25" customHeight="1">
       <c r="G743" s="10"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="7:7" ht="14.25" customHeight="1">
       <c r="G744" s="10"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="7:7" ht="14.25" customHeight="1">
       <c r="G745" s="10"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="7:7" ht="14.25" customHeight="1">
       <c r="G746" s="10"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="7:7" ht="14.25" customHeight="1">
       <c r="G747" s="10"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="7:7" ht="14.25" customHeight="1">
       <c r="G748" s="10"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="7:7" ht="14.25" customHeight="1">
       <c r="G749" s="10"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="7:7" ht="14.25" customHeight="1">
       <c r="G750" s="10"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="7:7" ht="14.25" customHeight="1">
       <c r="G751" s="10"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="7:7" ht="14.25" customHeight="1">
       <c r="G752" s="10"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="7:7" ht="14.25" customHeight="1">
       <c r="G753" s="10"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="7:7" ht="14.25" customHeight="1">
       <c r="G754" s="10"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="7:7" ht="14.25" customHeight="1">
       <c r="G755" s="10"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="7:7" ht="14.25" customHeight="1">
       <c r="G756" s="10"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="7:7" ht="14.25" customHeight="1">
       <c r="G757" s="10"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="7:7" ht="14.25" customHeight="1">
       <c r="G758" s="10"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="7:7" ht="14.25" customHeight="1">
       <c r="G759" s="10"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="7:7" ht="14.25" customHeight="1">
       <c r="G760" s="10"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="7:7" ht="14.25" customHeight="1">
       <c r="G761" s="10"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="7:7" ht="14.25" customHeight="1">
       <c r="G762" s="10"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="7:7" ht="14.25" customHeight="1">
       <c r="G763" s="10"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="7:7" ht="14.25" customHeight="1">
       <c r="G764" s="10"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="7:7" ht="14.25" customHeight="1">
       <c r="G765" s="10"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="7:7" ht="14.25" customHeight="1">
       <c r="G766" s="10"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="7:7" ht="14.25" customHeight="1">
       <c r="G767" s="10"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="7:7" ht="14.25" customHeight="1">
       <c r="G768" s="10"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="7:7" ht="14.25" customHeight="1">
       <c r="G769" s="10"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="7:7" ht="14.25" customHeight="1">
       <c r="G770" s="10"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="7:7" ht="14.25" customHeight="1">
       <c r="G771" s="10"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="7:7" ht="14.25" customHeight="1">
       <c r="G772" s="10"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="7:7" ht="14.25" customHeight="1">
       <c r="G773" s="10"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="7:7" ht="14.25" customHeight="1">
       <c r="G774" s="10"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="7:7" ht="14.25" customHeight="1">
       <c r="G775" s="10"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="7:7" ht="14.25" customHeight="1">
       <c r="G776" s="10"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="7:7" ht="14.25" customHeight="1">
       <c r="G777" s="10"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="7:7" ht="14.25" customHeight="1">
       <c r="G778" s="10"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="7:7" ht="14.25" customHeight="1">
       <c r="G779" s="10"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="7:7" ht="14.25" customHeight="1">
       <c r="G780" s="10"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="7:7" ht="14.25" customHeight="1">
       <c r="G781" s="10"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="7:7" ht="14.25" customHeight="1">
       <c r="G782" s="10"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="7:7" ht="14.25" customHeight="1">
       <c r="G783" s="10"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="7:7" ht="14.25" customHeight="1">
       <c r="G784" s="10"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="7:7" ht="14.25" customHeight="1">
       <c r="G785" s="10"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="7:7" ht="14.25" customHeight="1">
       <c r="G786" s="10"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="7:7" ht="14.25" customHeight="1">
       <c r="G787" s="10"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="7:7" ht="14.25" customHeight="1">
       <c r="G788" s="10"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="7:7" ht="14.25" customHeight="1">
       <c r="G789" s="10"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="7:7" ht="14.25" customHeight="1">
       <c r="G790" s="10"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="7:7" ht="14.25" customHeight="1">
       <c r="G791" s="10"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="7:7" ht="14.25" customHeight="1">
       <c r="G792" s="10"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="7:7" ht="14.25" customHeight="1">
       <c r="G793" s="10"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="7:7" ht="14.25" customHeight="1">
       <c r="G794" s="10"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="7:7" ht="14.25" customHeight="1">
       <c r="G795" s="10"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="7:7" ht="14.25" customHeight="1">
       <c r="G796" s="10"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="7:7" ht="14.25" customHeight="1">
       <c r="G797" s="10"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="7:7" ht="14.25" customHeight="1">
       <c r="G798" s="10"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="7:7" ht="14.25" customHeight="1">
       <c r="G799" s="10"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="7:7" ht="14.25" customHeight="1">
       <c r="G800" s="10"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="7:7" ht="14.25" customHeight="1">
       <c r="G801" s="10"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="7:7" ht="14.25" customHeight="1">
       <c r="G802" s="10"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="7:7" ht="14.25" customHeight="1">
       <c r="G803" s="10"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="7:7" ht="14.25" customHeight="1">
       <c r="G804" s="10"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="7:7" ht="14.25" customHeight="1">
       <c r="G805" s="10"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="7:7" ht="14.25" customHeight="1">
       <c r="G806" s="10"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="7:7" ht="14.25" customHeight="1">
       <c r="G807" s="10"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="7:7" ht="14.25" customHeight="1">
       <c r="G808" s="10"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="7:7" ht="14.25" customHeight="1">
       <c r="G809" s="10"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="7:7" ht="14.25" customHeight="1">
       <c r="G810" s="10"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="7:7" ht="14.25" customHeight="1">
       <c r="G811" s="10"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="7:7" ht="14.25" customHeight="1">
       <c r="G812" s="10"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="7:7" ht="14.25" customHeight="1">
       <c r="G813" s="10"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="7:7" ht="14.25" customHeight="1">
       <c r="G814" s="10"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="7:7" ht="14.25" customHeight="1">
       <c r="G815" s="10"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="7:7" ht="14.25" customHeight="1">
       <c r="G816" s="10"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="7:7" ht="14.25" customHeight="1">
       <c r="G817" s="10"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="7:7" ht="14.25" customHeight="1">
       <c r="G818" s="10"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="7:7" ht="14.25" customHeight="1">
       <c r="G819" s="10"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="7:7" ht="14.25" customHeight="1">
       <c r="G820" s="10"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="7:7" ht="14.25" customHeight="1">
       <c r="G821" s="10"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="7:7" ht="14.25" customHeight="1">
       <c r="G822" s="10"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="7:7" ht="14.25" customHeight="1">
       <c r="G823" s="10"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="7:7" ht="14.25" customHeight="1">
       <c r="G824" s="10"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="7:7" ht="14.25" customHeight="1">
       <c r="G825" s="10"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="7:7" ht="14.25" customHeight="1">
       <c r="G826" s="10"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="7:7" ht="14.25" customHeight="1">
       <c r="G827" s="10"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="7:7" ht="14.25" customHeight="1">
       <c r="G828" s="10"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="7:7" ht="14.25" customHeight="1">
       <c r="G829" s="10"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="7:7" ht="14.25" customHeight="1">
       <c r="G830" s="10"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="7:7" ht="14.25" customHeight="1">
       <c r="G831" s="10"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="7:7" ht="14.25" customHeight="1">
       <c r="G832" s="10"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="7:7" ht="14.25" customHeight="1">
       <c r="G833" s="10"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="7:7" ht="14.25" customHeight="1">
       <c r="G834" s="10"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="7:7" ht="14.25" customHeight="1">
       <c r="G835" s="10"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="7:7" ht="14.25" customHeight="1">
       <c r="G836" s="10"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="7:7" ht="14.25" customHeight="1">
       <c r="G837" s="10"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="7:7" ht="14.25" customHeight="1">
       <c r="G838" s="10"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="7:7" ht="14.25" customHeight="1">
       <c r="G839" s="10"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="7:7" ht="14.25" customHeight="1">
       <c r="G840" s="10"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="7:7" ht="14.25" customHeight="1">
       <c r="G841" s="10"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="7:7" ht="14.25" customHeight="1">
       <c r="G842" s="10"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="7:7" ht="14.25" customHeight="1">
       <c r="G843" s="10"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="7:7" ht="14.25" customHeight="1">
       <c r="G844" s="10"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="7:7" ht="14.25" customHeight="1">
       <c r="G845" s="10"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="7:7" ht="14.25" customHeight="1">
       <c r="G846" s="10"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="7:7" ht="14.25" customHeight="1">
       <c r="G847" s="10"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="7:7" ht="14.25" customHeight="1">
       <c r="G848" s="10"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="7:7" ht="14.25" customHeight="1">
       <c r="G849" s="10"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="7:7" ht="14.25" customHeight="1">
       <c r="G850" s="10"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="7:7" ht="14.25" customHeight="1">
       <c r="G851" s="10"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="7:7" ht="14.25" customHeight="1">
       <c r="G852" s="10"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="7:7" ht="14.25" customHeight="1">
       <c r="G853" s="10"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="7:7" ht="14.25" customHeight="1">
       <c r="G854" s="10"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="7:7" ht="14.25" customHeight="1">
       <c r="G855" s="10"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="7:7" ht="14.25" customHeight="1">
       <c r="G856" s="10"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="7:7" ht="14.25" customHeight="1">
       <c r="G857" s="10"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="7:7" ht="14.25" customHeight="1">
       <c r="G858" s="10"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="7:7" ht="14.25" customHeight="1">
       <c r="G859" s="10"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="7:7" ht="14.25" customHeight="1">
       <c r="G860" s="10"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="7:7" ht="14.25" customHeight="1">
       <c r="G861" s="10"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="7:7" ht="14.25" customHeight="1">
       <c r="G862" s="10"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="7:7" ht="14.25" customHeight="1">
       <c r="G863" s="10"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="7:7" ht="14.25" customHeight="1">
       <c r="G864" s="10"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="7:7" ht="14.25" customHeight="1">
       <c r="G865" s="10"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="7:7" ht="14.25" customHeight="1">
       <c r="G866" s="10"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="7:7" ht="14.25" customHeight="1">
       <c r="G867" s="10"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="7:7" ht="14.25" customHeight="1">
       <c r="G868" s="10"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="7:7" ht="14.25" customHeight="1">
       <c r="G869" s="10"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="7:7" ht="14.25" customHeight="1">
       <c r="G870" s="10"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="7:7" ht="14.25" customHeight="1">
       <c r="G871" s="10"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="7:7" ht="14.25" customHeight="1">
       <c r="G872" s="10"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="7:7" ht="14.25" customHeight="1">
       <c r="G873" s="10"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="7:7" ht="14.25" customHeight="1">
       <c r="G874" s="10"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="7:7" ht="14.25" customHeight="1">
       <c r="G875" s="10"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="7:7" ht="14.25" customHeight="1">
       <c r="G876" s="10"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="7:7" ht="14.25" customHeight="1">
       <c r="G877" s="10"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="7:7" ht="14.25" customHeight="1">
       <c r="G878" s="10"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="7:7" ht="14.25" customHeight="1">
       <c r="G879" s="10"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="7:7" ht="14.25" customHeight="1">
       <c r="G880" s="10"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="7:7" ht="14.25" customHeight="1">
       <c r="G881" s="10"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="7:7" ht="14.25" customHeight="1">
       <c r="G882" s="10"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="7:7" ht="14.25" customHeight="1">
       <c r="G883" s="10"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="7:7" ht="14.25" customHeight="1">
       <c r="G884" s="10"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="7:7" ht="14.25" customHeight="1">
       <c r="G885" s="10"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="7:7" ht="14.25" customHeight="1">
       <c r="G886" s="10"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="7:7" ht="14.25" customHeight="1">
       <c r="G887" s="10"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="7:7" ht="14.25" customHeight="1">
       <c r="G888" s="10"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="7:7" ht="14.25" customHeight="1">
       <c r="G889" s="10"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="7:7" ht="14.25" customHeight="1">
       <c r="G890" s="10"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="7:7" ht="14.25" customHeight="1">
       <c r="G891" s="10"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="7:7" ht="14.25" customHeight="1">
       <c r="G892" s="10"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="7:7" ht="14.25" customHeight="1">
       <c r="G893" s="10"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="7:7" ht="14.25" customHeight="1">
       <c r="G894" s="10"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="7:7" ht="14.25" customHeight="1">
       <c r="G895" s="10"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="7:7" ht="14.25" customHeight="1">
       <c r="G896" s="10"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="7:7" ht="14.25" customHeight="1">
       <c r="G897" s="10"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="7:7" ht="14.25" customHeight="1">
       <c r="G898" s="10"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="7:7" ht="14.25" customHeight="1">
       <c r="G899" s="10"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="7:7" ht="14.25" customHeight="1">
       <c r="G900" s="10"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="7:7" ht="14.25" customHeight="1">
       <c r="G901" s="10"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="7:7" ht="14.25" customHeight="1">
       <c r="G902" s="10"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="7:7" ht="14.25" customHeight="1">
       <c r="G903" s="10"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="7:7" ht="14.25" customHeight="1">
       <c r="G904" s="10"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="7:7" ht="14.25" customHeight="1">
       <c r="G905" s="10"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="7:7" ht="14.25" customHeight="1">
       <c r="G906" s="10"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="7:7" ht="14.25" customHeight="1">
       <c r="G907" s="10"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="7:7" ht="14.25" customHeight="1">
       <c r="G908" s="10"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="7:7" ht="14.25" customHeight="1">
       <c r="G909" s="10"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="7:7" ht="14.25" customHeight="1">
       <c r="G910" s="10"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="7:7" ht="14.25" customHeight="1">
       <c r="G911" s="10"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="7:7" ht="14.25" customHeight="1">
       <c r="G912" s="10"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="7:7" ht="14.25" customHeight="1">
       <c r="G913" s="10"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="7:7" ht="14.25" customHeight="1">
       <c r="G914" s="10"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="7:7" ht="14.25" customHeight="1">
       <c r="G915" s="10"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="7:7" ht="14.25" customHeight="1">
       <c r="G916" s="10"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="7:7" ht="14.25" customHeight="1">
       <c r="G917" s="10"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="7:7" ht="14.25" customHeight="1">
       <c r="G918" s="10"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="7:7" ht="14.25" customHeight="1">
       <c r="G919" s="10"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="7:7" ht="14.25" customHeight="1">
       <c r="G920" s="10"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="7:7" ht="14.25" customHeight="1">
       <c r="G921" s="10"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="7:7" ht="14.25" customHeight="1">
       <c r="G922" s="10"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="7:7" ht="14.25" customHeight="1">
       <c r="G923" s="10"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="7:7" ht="14.25" customHeight="1">
       <c r="G924" s="10"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="7:7" ht="14.25" customHeight="1">
       <c r="G925" s="10"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="7:7" ht="14.25" customHeight="1">
       <c r="G926" s="10"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="7:7" ht="14.25" customHeight="1">
       <c r="G927" s="10"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="7:7" ht="14.25" customHeight="1">
       <c r="G928" s="10"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="7:7" ht="14.25" customHeight="1">
       <c r="G929" s="10"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="7:7" ht="14.25" customHeight="1">
       <c r="G930" s="10"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="7:7" ht="14.25" customHeight="1">
       <c r="G931" s="10"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="7:7" ht="14.25" customHeight="1">
       <c r="G932" s="10"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="7:7" ht="14.25" customHeight="1">
       <c r="G933" s="10"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="7:7" ht="14.25" customHeight="1">
       <c r="G934" s="10"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="7:7" ht="14.25" customHeight="1">
       <c r="G935" s="10"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="7:7" ht="14.25" customHeight="1">
       <c r="G936" s="10"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="7:7" ht="14.25" customHeight="1">
       <c r="G937" s="10"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="7:7" ht="14.25" customHeight="1">
       <c r="G938" s="10"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="7:7" ht="14.25" customHeight="1">
       <c r="G939" s="10"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="7:7" ht="14.25" customHeight="1">
       <c r="G940" s="10"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="7:7" ht="14.25" customHeight="1">
       <c r="G941" s="10"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="7:7" ht="14.25" customHeight="1">
       <c r="G942" s="10"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="7:7" ht="14.25" customHeight="1">
       <c r="G943" s="10"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="7:7" ht="14.25" customHeight="1">
       <c r="G944" s="10"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="7:7" ht="14.25" customHeight="1">
       <c r="G945" s="10"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="7:7" ht="14.25" customHeight="1">
       <c r="G946" s="10"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="7:7" ht="14.25" customHeight="1">
       <c r="G947" s="10"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="7:7" ht="14.25" customHeight="1">
       <c r="G948" s="10"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="7:7" ht="14.25" customHeight="1">
       <c r="G949" s="10"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="7:7" ht="14.25" customHeight="1">
       <c r="G950" s="10"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="7:7" ht="14.25" customHeight="1">
       <c r="G951" s="10"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="7:7" ht="14.25" customHeight="1">
       <c r="G952" s="10"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="7:7" ht="14.25" customHeight="1">
       <c r="G953" s="10"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="7:7" ht="14.25" customHeight="1">
       <c r="G954" s="10"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="7:7" ht="14.25" customHeight="1">
       <c r="G955" s="10"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="7:7" ht="14.25" customHeight="1">
       <c r="G956" s="10"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="7:7" ht="14.25" customHeight="1">
       <c r="G957" s="10"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="7:7" ht="14.25" customHeight="1">
       <c r="G958" s="10"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="7:7" ht="14.25" customHeight="1">
       <c r="G959" s="10"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="7:7" ht="14.25" customHeight="1">
       <c r="G960" s="10"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="7:7" ht="14.25" customHeight="1">
       <c r="G961" s="10"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="7:7" ht="14.25" customHeight="1">
       <c r="G962" s="10"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="7:7" ht="14.25" customHeight="1">
       <c r="G963" s="10"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="7:7" ht="14.25" customHeight="1">
       <c r="G964" s="10"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="7:7" ht="14.25" customHeight="1">
       <c r="G965" s="10"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="7:7" ht="14.25" customHeight="1">
       <c r="G966" s="10"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="7:7" ht="14.25" customHeight="1">
       <c r="G967" s="10"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="7:7" ht="14.25" customHeight="1">
       <c r="G968" s="10"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="7:7" ht="14.25" customHeight="1">
       <c r="G969" s="10"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="7:7" ht="14.25" customHeight="1">
       <c r="G970" s="10"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="7:7" ht="14.25" customHeight="1">
       <c r="G971" s="10"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="7:7" ht="14.25" customHeight="1">
       <c r="G972" s="10"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="7:7" ht="14.25" customHeight="1">
       <c r="G973" s="10"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="7:7" ht="14.25" customHeight="1">
       <c r="G974" s="10"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="7:7" ht="14.25" customHeight="1">
       <c r="G975" s="10"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="7:7" ht="14.25" customHeight="1">
       <c r="G976" s="10"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="7:7" ht="14.25" customHeight="1">
       <c r="G977" s="10"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="7:7" ht="14.25" customHeight="1">
       <c r="G978" s="10"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="7:7" ht="14.25" customHeight="1">
       <c r="G979" s="10"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="7:7" ht="14.25" customHeight="1">
       <c r="G980" s="10"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="7:7" ht="14.25" customHeight="1">
       <c r="G981" s="10"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="7:7" ht="14.25" customHeight="1">
       <c r="G982" s="10"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="7:7" ht="14.25" customHeight="1">
       <c r="G983" s="10"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="7:7" ht="14.25" customHeight="1">
       <c r="G984" s="10"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="7:7" ht="14.25" customHeight="1">
       <c r="G985" s="10"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="7:7" ht="14.25" customHeight="1">
       <c r="G986" s="10"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="7:7" ht="14.25" customHeight="1">
       <c r="G987" s="10"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="7:7" ht="14.25" customHeight="1">
       <c r="G988" s="10"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="7:7" ht="14.25" customHeight="1">
       <c r="G989" s="10"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="7:7" ht="14.25" customHeight="1">
       <c r="G990" s="10"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="7:7" ht="14.25" customHeight="1">
       <c r="G991" s="10"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="7:7" ht="14.25" customHeight="1">
       <c r="G992" s="10"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="7:7" ht="14.25" customHeight="1">
       <c r="G993" s="10"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="7:7" ht="14.25" customHeight="1">
       <c r="G994" s="10"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="7:7" ht="14.25" customHeight="1">
       <c r="G995" s="10"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="7:7" ht="14.25" customHeight="1">
       <c r="G996" s="10"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E3">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Closed,Open"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.29"/>
-    <col customWidth="1" min="2" max="2" width="13.86"/>
-    <col customWidth="1" min="3" max="3" width="14.71"/>
-    <col customWidth="1" min="4" max="4" width="64.43"/>
-    <col customWidth="1" min="5" max="7" width="13.86"/>
-    <col customWidth="1" min="8" max="26" width="8.71"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" customWidth="1"/>
+    <col min="5" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
+    <row r="1" spans="1:26" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4048,7 +4193,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" ht="37.5" customHeight="1">
+    <row r="2" spans="1:26" ht="37.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
@@ -4068,10 +4213,10 @@
         <v>21</v>
       </c>
       <c r="G2" s="12">
-        <v>44665.0</v>
+        <v>44665</v>
       </c>
     </row>
-    <row r="3" ht="37.5" customHeight="1">
+    <row r="3" spans="1:26" ht="37.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -4079,7 +4224,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="13">
-        <v>44899.0</v>
+        <v>44899</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>24</v>
@@ -4091,3035 +4236,3031 @@
         <v>25</v>
       </c>
       <c r="G3" s="12">
-        <v>44665.0</v>
+        <v>44665</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="G4" s="10"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="G5" s="10"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="G6" s="10"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="G7" s="10"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="G8" s="10"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="G9" s="10"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="G10" s="10"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="G11" s="10"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="G12" s="10"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="G13" s="10"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="G14" s="10"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="G15" s="10"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="G16" s="10"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="7:7" ht="14.25" customHeight="1">
       <c r="G17" s="10"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="7:7" ht="14.25" customHeight="1">
       <c r="G18" s="10"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="7:7" ht="14.25" customHeight="1">
       <c r="G19" s="10"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="7:7" ht="14.25" customHeight="1">
       <c r="G20" s="10"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="7:7" ht="14.25" customHeight="1">
       <c r="G21" s="10"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="7:7" ht="14.25" customHeight="1">
       <c r="G22" s="10"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="7:7" ht="14.25" customHeight="1">
       <c r="G23" s="10"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="7:7" ht="14.25" customHeight="1">
       <c r="G24" s="10"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="7:7" ht="14.25" customHeight="1">
       <c r="G25" s="10"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="7:7" ht="14.25" customHeight="1">
       <c r="G26" s="10"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="7:7" ht="14.25" customHeight="1">
       <c r="G27" s="10"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="7:7" ht="14.25" customHeight="1">
       <c r="G28" s="10"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="7:7" ht="14.25" customHeight="1">
       <c r="G29" s="10"/>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="7:7" ht="14.25" customHeight="1">
       <c r="G30" s="10"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="7:7" ht="14.25" customHeight="1">
       <c r="G31" s="10"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="7:7" ht="14.25" customHeight="1">
       <c r="G32" s="10"/>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="7:7" ht="14.25" customHeight="1">
       <c r="G33" s="10"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="7:7" ht="14.25" customHeight="1">
       <c r="G34" s="10"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="7:7" ht="14.25" customHeight="1">
       <c r="G35" s="10"/>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="7:7" ht="14.25" customHeight="1">
       <c r="G36" s="10"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="7:7" ht="14.25" customHeight="1">
       <c r="G37" s="10"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="7:7" ht="14.25" customHeight="1">
       <c r="G38" s="10"/>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="7:7" ht="14.25" customHeight="1">
       <c r="G39" s="10"/>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="7:7" ht="14.25" customHeight="1">
       <c r="G40" s="10"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="7:7" ht="14.25" customHeight="1">
       <c r="G41" s="10"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="7:7" ht="14.25" customHeight="1">
       <c r="G42" s="10"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="7:7" ht="14.25" customHeight="1">
       <c r="G43" s="10"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="7:7" ht="14.25" customHeight="1">
       <c r="G44" s="10"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="7:7" ht="14.25" customHeight="1">
       <c r="G45" s="10"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="7:7" ht="14.25" customHeight="1">
       <c r="G46" s="10"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="7:7" ht="14.25" customHeight="1">
       <c r="G47" s="10"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="7:7" ht="14.25" customHeight="1">
       <c r="G48" s="10"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="7:7" ht="14.25" customHeight="1">
       <c r="G49" s="10"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="7:7" ht="14.25" customHeight="1">
       <c r="G50" s="10"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="7:7" ht="14.25" customHeight="1">
       <c r="G51" s="10"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="7:7" ht="14.25" customHeight="1">
       <c r="G52" s="10"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="7:7" ht="14.25" customHeight="1">
       <c r="G53" s="10"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="7:7" ht="14.25" customHeight="1">
       <c r="G54" s="10"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="7:7" ht="14.25" customHeight="1">
       <c r="G55" s="10"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="7:7" ht="14.25" customHeight="1">
       <c r="G56" s="10"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="7:7" ht="14.25" customHeight="1">
       <c r="G57" s="10"/>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="7:7" ht="14.25" customHeight="1">
       <c r="G58" s="10"/>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="7:7" ht="14.25" customHeight="1">
       <c r="G59" s="10"/>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="7:7" ht="14.25" customHeight="1">
       <c r="G60" s="10"/>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="7:7" ht="14.25" customHeight="1">
       <c r="G61" s="10"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="7:7" ht="14.25" customHeight="1">
       <c r="G62" s="10"/>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="7:7" ht="14.25" customHeight="1">
       <c r="G63" s="10"/>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="7:7" ht="14.25" customHeight="1">
       <c r="G64" s="10"/>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="7:7" ht="14.25" customHeight="1">
       <c r="G65" s="10"/>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="7:7" ht="14.25" customHeight="1">
       <c r="G66" s="10"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="7:7" ht="14.25" customHeight="1">
       <c r="G67" s="10"/>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="7:7" ht="14.25" customHeight="1">
       <c r="G68" s="10"/>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="7:7" ht="14.25" customHeight="1">
       <c r="G69" s="10"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="7:7" ht="14.25" customHeight="1">
       <c r="G70" s="10"/>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="7:7" ht="14.25" customHeight="1">
       <c r="G71" s="10"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="7:7" ht="14.25" customHeight="1">
       <c r="G72" s="10"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="7:7" ht="14.25" customHeight="1">
       <c r="G73" s="10"/>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="7:7" ht="14.25" customHeight="1">
       <c r="G74" s="10"/>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="7:7" ht="14.25" customHeight="1">
       <c r="G75" s="10"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="7:7" ht="14.25" customHeight="1">
       <c r="G76" s="10"/>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="7:7" ht="14.25" customHeight="1">
       <c r="G77" s="10"/>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="7:7" ht="14.25" customHeight="1">
       <c r="G78" s="10"/>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="7:7" ht="14.25" customHeight="1">
       <c r="G79" s="10"/>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="7:7" ht="14.25" customHeight="1">
       <c r="G80" s="10"/>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="7:7" ht="14.25" customHeight="1">
       <c r="G81" s="10"/>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="7:7" ht="14.25" customHeight="1">
       <c r="G82" s="10"/>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="7:7" ht="14.25" customHeight="1">
       <c r="G83" s="10"/>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="7:7" ht="14.25" customHeight="1">
       <c r="G84" s="10"/>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="7:7" ht="14.25" customHeight="1">
       <c r="G85" s="10"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="7:7" ht="14.25" customHeight="1">
       <c r="G86" s="10"/>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="7:7" ht="14.25" customHeight="1">
       <c r="G87" s="10"/>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="7:7" ht="14.25" customHeight="1">
       <c r="G88" s="10"/>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="7:7" ht="14.25" customHeight="1">
       <c r="G89" s="10"/>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="7:7" ht="14.25" customHeight="1">
       <c r="G90" s="10"/>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="7:7" ht="14.25" customHeight="1">
       <c r="G91" s="10"/>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="7:7" ht="14.25" customHeight="1">
       <c r="G92" s="10"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="7:7" ht="14.25" customHeight="1">
       <c r="G93" s="10"/>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="7:7" ht="14.25" customHeight="1">
       <c r="G94" s="10"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="7:7" ht="14.25" customHeight="1">
       <c r="G95" s="10"/>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="7:7" ht="14.25" customHeight="1">
       <c r="G96" s="10"/>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="7:7" ht="14.25" customHeight="1">
       <c r="G97" s="10"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="7:7" ht="14.25" customHeight="1">
       <c r="G98" s="10"/>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="7:7" ht="14.25" customHeight="1">
       <c r="G99" s="10"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="7:7" ht="14.25" customHeight="1">
       <c r="G100" s="10"/>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="7:7" ht="14.25" customHeight="1">
       <c r="G101" s="10"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="7:7" ht="14.25" customHeight="1">
       <c r="G102" s="10"/>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="7:7" ht="14.25" customHeight="1">
       <c r="G103" s="10"/>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="7:7" ht="14.25" customHeight="1">
       <c r="G104" s="10"/>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="7:7" ht="14.25" customHeight="1">
       <c r="G105" s="10"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="7:7" ht="14.25" customHeight="1">
       <c r="G106" s="10"/>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="7:7" ht="14.25" customHeight="1">
       <c r="G107" s="10"/>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="7:7" ht="14.25" customHeight="1">
       <c r="G108" s="10"/>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="7:7" ht="14.25" customHeight="1">
       <c r="G109" s="10"/>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="7:7" ht="14.25" customHeight="1">
       <c r="G110" s="10"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="7:7" ht="14.25" customHeight="1">
       <c r="G111" s="10"/>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="7:7" ht="14.25" customHeight="1">
       <c r="G112" s="10"/>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="7:7" ht="14.25" customHeight="1">
       <c r="G113" s="10"/>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="7:7" ht="14.25" customHeight="1">
       <c r="G114" s="10"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="7:7" ht="14.25" customHeight="1">
       <c r="G115" s="10"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="7:7" ht="14.25" customHeight="1">
       <c r="G116" s="10"/>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="7:7" ht="14.25" customHeight="1">
       <c r="G117" s="10"/>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="7:7" ht="14.25" customHeight="1">
       <c r="G118" s="10"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="7:7" ht="14.25" customHeight="1">
       <c r="G119" s="10"/>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="7:7" ht="14.25" customHeight="1">
       <c r="G120" s="10"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="7:7" ht="14.25" customHeight="1">
       <c r="G121" s="10"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="7:7" ht="14.25" customHeight="1">
       <c r="G122" s="10"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="7:7" ht="14.25" customHeight="1">
       <c r="G123" s="10"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="7:7" ht="14.25" customHeight="1">
       <c r="G124" s="10"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="7:7" ht="14.25" customHeight="1">
       <c r="G125" s="10"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="7:7" ht="14.25" customHeight="1">
       <c r="G126" s="10"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="7:7" ht="14.25" customHeight="1">
       <c r="G127" s="10"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="7:7" ht="14.25" customHeight="1">
       <c r="G128" s="10"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="7:7" ht="14.25" customHeight="1">
       <c r="G129" s="10"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="7:7" ht="14.25" customHeight="1">
       <c r="G130" s="10"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="7:7" ht="14.25" customHeight="1">
       <c r="G131" s="10"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="7:7" ht="14.25" customHeight="1">
       <c r="G132" s="10"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="7:7" ht="14.25" customHeight="1">
       <c r="G133" s="10"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="7:7" ht="14.25" customHeight="1">
       <c r="G134" s="10"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="7:7" ht="14.25" customHeight="1">
       <c r="G135" s="10"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="7:7" ht="14.25" customHeight="1">
       <c r="G136" s="10"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="7:7" ht="14.25" customHeight="1">
       <c r="G137" s="10"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="7:7" ht="14.25" customHeight="1">
       <c r="G138" s="10"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="7:7" ht="14.25" customHeight="1">
       <c r="G139" s="10"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="7:7" ht="14.25" customHeight="1">
       <c r="G140" s="10"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="7:7" ht="14.25" customHeight="1">
       <c r="G141" s="10"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="7:7" ht="14.25" customHeight="1">
       <c r="G142" s="10"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="7:7" ht="14.25" customHeight="1">
       <c r="G143" s="10"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="7:7" ht="14.25" customHeight="1">
       <c r="G144" s="10"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="7:7" ht="14.25" customHeight="1">
       <c r="G145" s="10"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="7:7" ht="14.25" customHeight="1">
       <c r="G146" s="10"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="7:7" ht="14.25" customHeight="1">
       <c r="G147" s="10"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="7:7" ht="14.25" customHeight="1">
       <c r="G148" s="10"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="7:7" ht="14.25" customHeight="1">
       <c r="G149" s="10"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="7:7" ht="14.25" customHeight="1">
       <c r="G150" s="10"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="7:7" ht="14.25" customHeight="1">
       <c r="G151" s="10"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="7:7" ht="14.25" customHeight="1">
       <c r="G152" s="10"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="7:7" ht="14.25" customHeight="1">
       <c r="G153" s="10"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="7:7" ht="14.25" customHeight="1">
       <c r="G154" s="10"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="7:7" ht="14.25" customHeight="1">
       <c r="G155" s="10"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="7:7" ht="14.25" customHeight="1">
       <c r="G156" s="10"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="7:7" ht="14.25" customHeight="1">
       <c r="G157" s="10"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="7:7" ht="14.25" customHeight="1">
       <c r="G158" s="10"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="7:7" ht="14.25" customHeight="1">
       <c r="G159" s="10"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="7:7" ht="14.25" customHeight="1">
       <c r="G160" s="10"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="7:7" ht="14.25" customHeight="1">
       <c r="G161" s="10"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="7:7" ht="14.25" customHeight="1">
       <c r="G162" s="10"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="7:7" ht="14.25" customHeight="1">
       <c r="G163" s="10"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="7:7" ht="14.25" customHeight="1">
       <c r="G164" s="10"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="7:7" ht="14.25" customHeight="1">
       <c r="G165" s="10"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="7:7" ht="14.25" customHeight="1">
       <c r="G166" s="10"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="7:7" ht="14.25" customHeight="1">
       <c r="G167" s="10"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="7:7" ht="14.25" customHeight="1">
       <c r="G168" s="10"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="7:7" ht="14.25" customHeight="1">
       <c r="G169" s="10"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="7:7" ht="14.25" customHeight="1">
       <c r="G170" s="10"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="7:7" ht="14.25" customHeight="1">
       <c r="G171" s="10"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="7:7" ht="14.25" customHeight="1">
       <c r="G172" s="10"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="7:7" ht="14.25" customHeight="1">
       <c r="G173" s="10"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="7:7" ht="14.25" customHeight="1">
       <c r="G174" s="10"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="7:7" ht="14.25" customHeight="1">
       <c r="G175" s="10"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="7:7" ht="14.25" customHeight="1">
       <c r="G176" s="10"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="7:7" ht="14.25" customHeight="1">
       <c r="G177" s="10"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="7:7" ht="14.25" customHeight="1">
       <c r="G178" s="10"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="7:7" ht="14.25" customHeight="1">
       <c r="G179" s="10"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="7:7" ht="14.25" customHeight="1">
       <c r="G180" s="10"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="7:7" ht="14.25" customHeight="1">
       <c r="G181" s="10"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="7:7" ht="14.25" customHeight="1">
       <c r="G182" s="10"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="7:7" ht="14.25" customHeight="1">
       <c r="G183" s="10"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="7:7" ht="14.25" customHeight="1">
       <c r="G184" s="10"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="7:7" ht="14.25" customHeight="1">
       <c r="G185" s="10"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="7:7" ht="14.25" customHeight="1">
       <c r="G186" s="10"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="7:7" ht="14.25" customHeight="1">
       <c r="G187" s="10"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="7:7" ht="14.25" customHeight="1">
       <c r="G188" s="10"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="7:7" ht="14.25" customHeight="1">
       <c r="G189" s="10"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="7:7" ht="14.25" customHeight="1">
       <c r="G190" s="10"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="7:7" ht="14.25" customHeight="1">
       <c r="G191" s="10"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="7:7" ht="14.25" customHeight="1">
       <c r="G192" s="10"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="7:7" ht="14.25" customHeight="1">
       <c r="G193" s="10"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="7:7" ht="14.25" customHeight="1">
       <c r="G194" s="10"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="7:7" ht="14.25" customHeight="1">
       <c r="G195" s="10"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="7:7" ht="14.25" customHeight="1">
       <c r="G196" s="10"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="7:7" ht="14.25" customHeight="1">
       <c r="G197" s="10"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="7:7" ht="14.25" customHeight="1">
       <c r="G198" s="10"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="7:7" ht="14.25" customHeight="1">
       <c r="G199" s="10"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="7:7" ht="14.25" customHeight="1">
       <c r="G200" s="10"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="7:7" ht="14.25" customHeight="1">
       <c r="G201" s="10"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="7:7" ht="14.25" customHeight="1">
       <c r="G202" s="10"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="7:7" ht="14.25" customHeight="1">
       <c r="G203" s="10"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="7:7" ht="14.25" customHeight="1">
       <c r="G204" s="10"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="7:7" ht="14.25" customHeight="1">
       <c r="G205" s="10"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="7:7" ht="14.25" customHeight="1">
       <c r="G206" s="10"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="7:7" ht="14.25" customHeight="1">
       <c r="G207" s="10"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="7:7" ht="14.25" customHeight="1">
       <c r="G208" s="10"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="7:7" ht="14.25" customHeight="1">
       <c r="G209" s="10"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="7:7" ht="14.25" customHeight="1">
       <c r="G210" s="10"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="7:7" ht="14.25" customHeight="1">
       <c r="G211" s="10"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="7:7" ht="14.25" customHeight="1">
       <c r="G212" s="10"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="7:7" ht="14.25" customHeight="1">
       <c r="G213" s="10"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="7:7" ht="14.25" customHeight="1">
       <c r="G214" s="10"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="7:7" ht="14.25" customHeight="1">
       <c r="G215" s="10"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="7:7" ht="14.25" customHeight="1">
       <c r="G216" s="10"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="7:7" ht="14.25" customHeight="1">
       <c r="G217" s="10"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="7:7" ht="14.25" customHeight="1">
       <c r="G218" s="10"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="7:7" ht="14.25" customHeight="1">
       <c r="G219" s="10"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="7:7" ht="14.25" customHeight="1">
       <c r="G220" s="10"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="7:7" ht="14.25" customHeight="1">
       <c r="G221" s="10"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="7:7" ht="14.25" customHeight="1">
       <c r="G222" s="10"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="7:7" ht="14.25" customHeight="1">
       <c r="G223" s="10"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="7:7" ht="14.25" customHeight="1">
       <c r="G224" s="10"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="7:7" ht="14.25" customHeight="1">
       <c r="G225" s="10"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="7:7" ht="14.25" customHeight="1">
       <c r="G226" s="10"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="7:7" ht="14.25" customHeight="1">
       <c r="G227" s="10"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="7:7" ht="14.25" customHeight="1">
       <c r="G228" s="10"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="7:7" ht="14.25" customHeight="1">
       <c r="G229" s="10"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="7:7" ht="14.25" customHeight="1">
       <c r="G230" s="10"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="7:7" ht="14.25" customHeight="1">
       <c r="G231" s="10"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="7:7" ht="14.25" customHeight="1">
       <c r="G232" s="10"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="7:7" ht="14.25" customHeight="1">
       <c r="G233" s="10"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="7:7" ht="14.25" customHeight="1">
       <c r="G234" s="10"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="7:7" ht="14.25" customHeight="1">
       <c r="G235" s="10"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="7:7" ht="14.25" customHeight="1">
       <c r="G236" s="10"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="7:7" ht="14.25" customHeight="1">
       <c r="G237" s="10"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="7:7" ht="14.25" customHeight="1">
       <c r="G238" s="10"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="7:7" ht="14.25" customHeight="1">
       <c r="G239" s="10"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="7:7" ht="14.25" customHeight="1">
       <c r="G240" s="10"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="7:7" ht="14.25" customHeight="1">
       <c r="G241" s="10"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="7:7" ht="14.25" customHeight="1">
       <c r="G242" s="10"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="7:7" ht="14.25" customHeight="1">
       <c r="G243" s="10"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="7:7" ht="14.25" customHeight="1">
       <c r="G244" s="10"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="7:7" ht="14.25" customHeight="1">
       <c r="G245" s="10"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="7:7" ht="14.25" customHeight="1">
       <c r="G246" s="10"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="7:7" ht="14.25" customHeight="1">
       <c r="G247" s="10"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="7:7" ht="14.25" customHeight="1">
       <c r="G248" s="10"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="7:7" ht="14.25" customHeight="1">
       <c r="G249" s="10"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="7:7" ht="14.25" customHeight="1">
       <c r="G250" s="10"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="7:7" ht="14.25" customHeight="1">
       <c r="G251" s="10"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="7:7" ht="14.25" customHeight="1">
       <c r="G252" s="10"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="7:7" ht="14.25" customHeight="1">
       <c r="G253" s="10"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="7:7" ht="14.25" customHeight="1">
       <c r="G254" s="10"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="7:7" ht="14.25" customHeight="1">
       <c r="G255" s="10"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="7:7" ht="14.25" customHeight="1">
       <c r="G256" s="10"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="7:7" ht="14.25" customHeight="1">
       <c r="G257" s="10"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="7:7" ht="14.25" customHeight="1">
       <c r="G258" s="10"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="7:7" ht="14.25" customHeight="1">
       <c r="G259" s="10"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="7:7" ht="14.25" customHeight="1">
       <c r="G260" s="10"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="7:7" ht="14.25" customHeight="1">
       <c r="G261" s="10"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="7:7" ht="14.25" customHeight="1">
       <c r="G262" s="10"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="7:7" ht="14.25" customHeight="1">
       <c r="G263" s="10"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="7:7" ht="14.25" customHeight="1">
       <c r="G264" s="10"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="7:7" ht="14.25" customHeight="1">
       <c r="G265" s="10"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="7:7" ht="14.25" customHeight="1">
       <c r="G266" s="10"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="7:7" ht="14.25" customHeight="1">
       <c r="G267" s="10"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="7:7" ht="14.25" customHeight="1">
       <c r="G268" s="10"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="7:7" ht="14.25" customHeight="1">
       <c r="G269" s="10"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="7:7" ht="14.25" customHeight="1">
       <c r="G270" s="10"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="7:7" ht="14.25" customHeight="1">
       <c r="G271" s="10"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="7:7" ht="14.25" customHeight="1">
       <c r="G272" s="10"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="7:7" ht="14.25" customHeight="1">
       <c r="G273" s="10"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="7:7" ht="14.25" customHeight="1">
       <c r="G274" s="10"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="7:7" ht="14.25" customHeight="1">
       <c r="G275" s="10"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="7:7" ht="14.25" customHeight="1">
       <c r="G276" s="10"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="7:7" ht="14.25" customHeight="1">
       <c r="G277" s="10"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="7:7" ht="14.25" customHeight="1">
       <c r="G278" s="10"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="7:7" ht="14.25" customHeight="1">
       <c r="G279" s="10"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="7:7" ht="14.25" customHeight="1">
       <c r="G280" s="10"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="7:7" ht="14.25" customHeight="1">
       <c r="G281" s="10"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="7:7" ht="14.25" customHeight="1">
       <c r="G282" s="10"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="7:7" ht="14.25" customHeight="1">
       <c r="G283" s="10"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="7:7" ht="14.25" customHeight="1">
       <c r="G284" s="10"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="7:7" ht="14.25" customHeight="1">
       <c r="G285" s="10"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="7:7" ht="14.25" customHeight="1">
       <c r="G286" s="10"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="7:7" ht="14.25" customHeight="1">
       <c r="G287" s="10"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="7:7" ht="14.25" customHeight="1">
       <c r="G288" s="10"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="7:7" ht="14.25" customHeight="1">
       <c r="G289" s="10"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="7:7" ht="14.25" customHeight="1">
       <c r="G290" s="10"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="7:7" ht="14.25" customHeight="1">
       <c r="G291" s="10"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="7:7" ht="14.25" customHeight="1">
       <c r="G292" s="10"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="7:7" ht="14.25" customHeight="1">
       <c r="G293" s="10"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="7:7" ht="14.25" customHeight="1">
       <c r="G294" s="10"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="7:7" ht="14.25" customHeight="1">
       <c r="G295" s="10"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="7:7" ht="14.25" customHeight="1">
       <c r="G296" s="10"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="7:7" ht="14.25" customHeight="1">
       <c r="G297" s="10"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="7:7" ht="14.25" customHeight="1">
       <c r="G298" s="10"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="7:7" ht="14.25" customHeight="1">
       <c r="G299" s="10"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="7:7" ht="14.25" customHeight="1">
       <c r="G300" s="10"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="7:7" ht="14.25" customHeight="1">
       <c r="G301" s="10"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="7:7" ht="14.25" customHeight="1">
       <c r="G302" s="10"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="7:7" ht="14.25" customHeight="1">
       <c r="G303" s="10"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="7:7" ht="14.25" customHeight="1">
       <c r="G304" s="10"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="7:7" ht="14.25" customHeight="1">
       <c r="G305" s="10"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="7:7" ht="14.25" customHeight="1">
       <c r="G306" s="10"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="7:7" ht="14.25" customHeight="1">
       <c r="G307" s="10"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="7:7" ht="14.25" customHeight="1">
       <c r="G308" s="10"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="7:7" ht="14.25" customHeight="1">
       <c r="G309" s="10"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="7:7" ht="14.25" customHeight="1">
       <c r="G310" s="10"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="7:7" ht="14.25" customHeight="1">
       <c r="G311" s="10"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="7:7" ht="14.25" customHeight="1">
       <c r="G312" s="10"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="7:7" ht="14.25" customHeight="1">
       <c r="G313" s="10"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="7:7" ht="14.25" customHeight="1">
       <c r="G314" s="10"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="7:7" ht="14.25" customHeight="1">
       <c r="G315" s="10"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="7:7" ht="14.25" customHeight="1">
       <c r="G316" s="10"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="7:7" ht="14.25" customHeight="1">
       <c r="G317" s="10"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="7:7" ht="14.25" customHeight="1">
       <c r="G318" s="10"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="7:7" ht="14.25" customHeight="1">
       <c r="G319" s="10"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="7:7" ht="14.25" customHeight="1">
       <c r="G320" s="10"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="7:7" ht="14.25" customHeight="1">
       <c r="G321" s="10"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="7:7" ht="14.25" customHeight="1">
       <c r="G322" s="10"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="7:7" ht="14.25" customHeight="1">
       <c r="G323" s="10"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="7:7" ht="14.25" customHeight="1">
       <c r="G324" s="10"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="7:7" ht="14.25" customHeight="1">
       <c r="G325" s="10"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="7:7" ht="14.25" customHeight="1">
       <c r="G326" s="10"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="7:7" ht="14.25" customHeight="1">
       <c r="G327" s="10"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="7:7" ht="14.25" customHeight="1">
       <c r="G328" s="10"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="7:7" ht="14.25" customHeight="1">
       <c r="G329" s="10"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="7:7" ht="14.25" customHeight="1">
       <c r="G330" s="10"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="7:7" ht="14.25" customHeight="1">
       <c r="G331" s="10"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="7:7" ht="14.25" customHeight="1">
       <c r="G332" s="10"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="7:7" ht="14.25" customHeight="1">
       <c r="G333" s="10"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="7:7" ht="14.25" customHeight="1">
       <c r="G334" s="10"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="7:7" ht="14.25" customHeight="1">
       <c r="G335" s="10"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="7:7" ht="14.25" customHeight="1">
       <c r="G336" s="10"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="7:7" ht="14.25" customHeight="1">
       <c r="G337" s="10"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="7:7" ht="14.25" customHeight="1">
       <c r="G338" s="10"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="7:7" ht="14.25" customHeight="1">
       <c r="G339" s="10"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="7:7" ht="14.25" customHeight="1">
       <c r="G340" s="10"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="7:7" ht="14.25" customHeight="1">
       <c r="G341" s="10"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="7:7" ht="14.25" customHeight="1">
       <c r="G342" s="10"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="7:7" ht="14.25" customHeight="1">
       <c r="G343" s="10"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="7:7" ht="14.25" customHeight="1">
       <c r="G344" s="10"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="7:7" ht="14.25" customHeight="1">
       <c r="G345" s="10"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="7:7" ht="14.25" customHeight="1">
       <c r="G346" s="10"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="7:7" ht="14.25" customHeight="1">
       <c r="G347" s="10"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="7:7" ht="14.25" customHeight="1">
       <c r="G348" s="10"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="7:7" ht="14.25" customHeight="1">
       <c r="G349" s="10"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="7:7" ht="14.25" customHeight="1">
       <c r="G350" s="10"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="7:7" ht="14.25" customHeight="1">
       <c r="G351" s="10"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="7:7" ht="14.25" customHeight="1">
       <c r="G352" s="10"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="7:7" ht="14.25" customHeight="1">
       <c r="G353" s="10"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="7:7" ht="14.25" customHeight="1">
       <c r="G354" s="10"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="7:7" ht="14.25" customHeight="1">
       <c r="G355" s="10"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="7:7" ht="14.25" customHeight="1">
       <c r="G356" s="10"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="7:7" ht="14.25" customHeight="1">
       <c r="G357" s="10"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="7:7" ht="14.25" customHeight="1">
       <c r="G358" s="10"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="7:7" ht="14.25" customHeight="1">
       <c r="G359" s="10"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="7:7" ht="14.25" customHeight="1">
       <c r="G360" s="10"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="7:7" ht="14.25" customHeight="1">
       <c r="G361" s="10"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="7:7" ht="14.25" customHeight="1">
       <c r="G362" s="10"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="7:7" ht="14.25" customHeight="1">
       <c r="G363" s="10"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="7:7" ht="14.25" customHeight="1">
       <c r="G364" s="10"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="7:7" ht="14.25" customHeight="1">
       <c r="G365" s="10"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="7:7" ht="14.25" customHeight="1">
       <c r="G366" s="10"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="7:7" ht="14.25" customHeight="1">
       <c r="G367" s="10"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="7:7" ht="14.25" customHeight="1">
       <c r="G368" s="10"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="7:7" ht="14.25" customHeight="1">
       <c r="G369" s="10"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="7:7" ht="14.25" customHeight="1">
       <c r="G370" s="10"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="7:7" ht="14.25" customHeight="1">
       <c r="G371" s="10"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="7:7" ht="14.25" customHeight="1">
       <c r="G372" s="10"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="7:7" ht="14.25" customHeight="1">
       <c r="G373" s="10"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="7:7" ht="14.25" customHeight="1">
       <c r="G374" s="10"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="7:7" ht="14.25" customHeight="1">
       <c r="G375" s="10"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="7:7" ht="14.25" customHeight="1">
       <c r="G376" s="10"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="7:7" ht="14.25" customHeight="1">
       <c r="G377" s="10"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="7:7" ht="14.25" customHeight="1">
       <c r="G378" s="10"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="7:7" ht="14.25" customHeight="1">
       <c r="G379" s="10"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="7:7" ht="14.25" customHeight="1">
       <c r="G380" s="10"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="7:7" ht="14.25" customHeight="1">
       <c r="G381" s="10"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="7:7" ht="14.25" customHeight="1">
       <c r="G382" s="10"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="7:7" ht="14.25" customHeight="1">
       <c r="G383" s="10"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="7:7" ht="14.25" customHeight="1">
       <c r="G384" s="10"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="7:7" ht="14.25" customHeight="1">
       <c r="G385" s="10"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="7:7" ht="14.25" customHeight="1">
       <c r="G386" s="10"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="7:7" ht="14.25" customHeight="1">
       <c r="G387" s="10"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="7:7" ht="14.25" customHeight="1">
       <c r="G388" s="10"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="7:7" ht="14.25" customHeight="1">
       <c r="G389" s="10"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="7:7" ht="14.25" customHeight="1">
       <c r="G390" s="10"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="7:7" ht="14.25" customHeight="1">
       <c r="G391" s="10"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="7:7" ht="14.25" customHeight="1">
       <c r="G392" s="10"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="7:7" ht="14.25" customHeight="1">
       <c r="G393" s="10"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="7:7" ht="14.25" customHeight="1">
       <c r="G394" s="10"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="7:7" ht="14.25" customHeight="1">
       <c r="G395" s="10"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="7:7" ht="14.25" customHeight="1">
       <c r="G396" s="10"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="7:7" ht="14.25" customHeight="1">
       <c r="G397" s="10"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="7:7" ht="14.25" customHeight="1">
       <c r="G398" s="10"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="7:7" ht="14.25" customHeight="1">
       <c r="G399" s="10"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="7:7" ht="14.25" customHeight="1">
       <c r="G400" s="10"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="7:7" ht="14.25" customHeight="1">
       <c r="G401" s="10"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="7:7" ht="14.25" customHeight="1">
       <c r="G402" s="10"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="7:7" ht="14.25" customHeight="1">
       <c r="G403" s="10"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="7:7" ht="14.25" customHeight="1">
       <c r="G404" s="10"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="7:7" ht="14.25" customHeight="1">
       <c r="G405" s="10"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="7:7" ht="14.25" customHeight="1">
       <c r="G406" s="10"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="7:7" ht="14.25" customHeight="1">
       <c r="G407" s="10"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="7:7" ht="14.25" customHeight="1">
       <c r="G408" s="10"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="7:7" ht="14.25" customHeight="1">
       <c r="G409" s="10"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="7:7" ht="14.25" customHeight="1">
       <c r="G410" s="10"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="7:7" ht="14.25" customHeight="1">
       <c r="G411" s="10"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="7:7" ht="14.25" customHeight="1">
       <c r="G412" s="10"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="7:7" ht="14.25" customHeight="1">
       <c r="G413" s="10"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="7:7" ht="14.25" customHeight="1">
       <c r="G414" s="10"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="7:7" ht="14.25" customHeight="1">
       <c r="G415" s="10"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="7:7" ht="14.25" customHeight="1">
       <c r="G416" s="10"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="7:7" ht="14.25" customHeight="1">
       <c r="G417" s="10"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="7:7" ht="14.25" customHeight="1">
       <c r="G418" s="10"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="7:7" ht="14.25" customHeight="1">
       <c r="G419" s="10"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="7:7" ht="14.25" customHeight="1">
       <c r="G420" s="10"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="7:7" ht="14.25" customHeight="1">
       <c r="G421" s="10"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="7:7" ht="14.25" customHeight="1">
       <c r="G422" s="10"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="7:7" ht="14.25" customHeight="1">
       <c r="G423" s="10"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="7:7" ht="14.25" customHeight="1">
       <c r="G424" s="10"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="7:7" ht="14.25" customHeight="1">
       <c r="G425" s="10"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="7:7" ht="14.25" customHeight="1">
       <c r="G426" s="10"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="7:7" ht="14.25" customHeight="1">
       <c r="G427" s="10"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="7:7" ht="14.25" customHeight="1">
       <c r="G428" s="10"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="7:7" ht="14.25" customHeight="1">
       <c r="G429" s="10"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="7:7" ht="14.25" customHeight="1">
       <c r="G430" s="10"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="7:7" ht="14.25" customHeight="1">
       <c r="G431" s="10"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="7:7" ht="14.25" customHeight="1">
       <c r="G432" s="10"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="7:7" ht="14.25" customHeight="1">
       <c r="G433" s="10"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="7:7" ht="14.25" customHeight="1">
       <c r="G434" s="10"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="7:7" ht="14.25" customHeight="1">
       <c r="G435" s="10"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="7:7" ht="14.25" customHeight="1">
       <c r="G436" s="10"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="7:7" ht="14.25" customHeight="1">
       <c r="G437" s="10"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="7:7" ht="14.25" customHeight="1">
       <c r="G438" s="10"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="7:7" ht="14.25" customHeight="1">
       <c r="G439" s="10"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="7:7" ht="14.25" customHeight="1">
       <c r="G440" s="10"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="7:7" ht="14.25" customHeight="1">
       <c r="G441" s="10"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="7:7" ht="14.25" customHeight="1">
       <c r="G442" s="10"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="7:7" ht="14.25" customHeight="1">
       <c r="G443" s="10"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="7:7" ht="14.25" customHeight="1">
       <c r="G444" s="10"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="7:7" ht="14.25" customHeight="1">
       <c r="G445" s="10"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="7:7" ht="14.25" customHeight="1">
       <c r="G446" s="10"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="7:7" ht="14.25" customHeight="1">
       <c r="G447" s="10"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="7:7" ht="14.25" customHeight="1">
       <c r="G448" s="10"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="7:7" ht="14.25" customHeight="1">
       <c r="G449" s="10"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="7:7" ht="14.25" customHeight="1">
       <c r="G450" s="10"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="7:7" ht="14.25" customHeight="1">
       <c r="G451" s="10"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="7:7" ht="14.25" customHeight="1">
       <c r="G452" s="10"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="7:7" ht="14.25" customHeight="1">
       <c r="G453" s="10"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="7:7" ht="14.25" customHeight="1">
       <c r="G454" s="10"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="7:7" ht="14.25" customHeight="1">
       <c r="G455" s="10"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="7:7" ht="14.25" customHeight="1">
       <c r="G456" s="10"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="7:7" ht="14.25" customHeight="1">
       <c r="G457" s="10"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="7:7" ht="14.25" customHeight="1">
       <c r="G458" s="10"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="7:7" ht="14.25" customHeight="1">
       <c r="G459" s="10"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="7:7" ht="14.25" customHeight="1">
       <c r="G460" s="10"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="7:7" ht="14.25" customHeight="1">
       <c r="G461" s="10"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="7:7" ht="14.25" customHeight="1">
       <c r="G462" s="10"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="7:7" ht="14.25" customHeight="1">
       <c r="G463" s="10"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="7:7" ht="14.25" customHeight="1">
       <c r="G464" s="10"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="7:7" ht="14.25" customHeight="1">
       <c r="G465" s="10"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="7:7" ht="14.25" customHeight="1">
       <c r="G466" s="10"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="7:7" ht="14.25" customHeight="1">
       <c r="G467" s="10"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="7:7" ht="14.25" customHeight="1">
       <c r="G468" s="10"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="7:7" ht="14.25" customHeight="1">
       <c r="G469" s="10"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="7:7" ht="14.25" customHeight="1">
       <c r="G470" s="10"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="7:7" ht="14.25" customHeight="1">
       <c r="G471" s="10"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="7:7" ht="14.25" customHeight="1">
       <c r="G472" s="10"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="7:7" ht="14.25" customHeight="1">
       <c r="G473" s="10"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="7:7" ht="14.25" customHeight="1">
       <c r="G474" s="10"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="7:7" ht="14.25" customHeight="1">
       <c r="G475" s="10"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="7:7" ht="14.25" customHeight="1">
       <c r="G476" s="10"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="7:7" ht="14.25" customHeight="1">
       <c r="G477" s="10"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="7:7" ht="14.25" customHeight="1">
       <c r="G478" s="10"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="7:7" ht="14.25" customHeight="1">
       <c r="G479" s="10"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="7:7" ht="14.25" customHeight="1">
       <c r="G480" s="10"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="7:7" ht="14.25" customHeight="1">
       <c r="G481" s="10"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="7:7" ht="14.25" customHeight="1">
       <c r="G482" s="10"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="7:7" ht="14.25" customHeight="1">
       <c r="G483" s="10"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="7:7" ht="14.25" customHeight="1">
       <c r="G484" s="10"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="7:7" ht="14.25" customHeight="1">
       <c r="G485" s="10"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="7:7" ht="14.25" customHeight="1">
       <c r="G486" s="10"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="7:7" ht="14.25" customHeight="1">
       <c r="G487" s="10"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="7:7" ht="14.25" customHeight="1">
       <c r="G488" s="10"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="7:7" ht="14.25" customHeight="1">
       <c r="G489" s="10"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="7:7" ht="14.25" customHeight="1">
       <c r="G490" s="10"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="7:7" ht="14.25" customHeight="1">
       <c r="G491" s="10"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="7:7" ht="14.25" customHeight="1">
       <c r="G492" s="10"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="7:7" ht="14.25" customHeight="1">
       <c r="G493" s="10"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="7:7" ht="14.25" customHeight="1">
       <c r="G494" s="10"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="7:7" ht="14.25" customHeight="1">
       <c r="G495" s="10"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="7:7" ht="14.25" customHeight="1">
       <c r="G496" s="10"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="7:7" ht="14.25" customHeight="1">
       <c r="G497" s="10"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="7:7" ht="14.25" customHeight="1">
       <c r="G498" s="10"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="7:7" ht="14.25" customHeight="1">
       <c r="G499" s="10"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="7:7" ht="14.25" customHeight="1">
       <c r="G500" s="10"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="7:7" ht="14.25" customHeight="1">
       <c r="G501" s="10"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="7:7" ht="14.25" customHeight="1">
       <c r="G502" s="10"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="7:7" ht="14.25" customHeight="1">
       <c r="G503" s="10"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="7:7" ht="14.25" customHeight="1">
       <c r="G504" s="10"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="7:7" ht="14.25" customHeight="1">
       <c r="G505" s="10"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="7:7" ht="14.25" customHeight="1">
       <c r="G506" s="10"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="7:7" ht="14.25" customHeight="1">
       <c r="G507" s="10"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="7:7" ht="14.25" customHeight="1">
       <c r="G508" s="10"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="7:7" ht="14.25" customHeight="1">
       <c r="G509" s="10"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="7:7" ht="14.25" customHeight="1">
       <c r="G510" s="10"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="7:7" ht="14.25" customHeight="1">
       <c r="G511" s="10"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="7:7" ht="14.25" customHeight="1">
       <c r="G512" s="10"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="7:7" ht="14.25" customHeight="1">
       <c r="G513" s="10"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="7:7" ht="14.25" customHeight="1">
       <c r="G514" s="10"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="7:7" ht="14.25" customHeight="1">
       <c r="G515" s="10"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="7:7" ht="14.25" customHeight="1">
       <c r="G516" s="10"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="7:7" ht="14.25" customHeight="1">
       <c r="G517" s="10"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="7:7" ht="14.25" customHeight="1">
       <c r="G518" s="10"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="7:7" ht="14.25" customHeight="1">
       <c r="G519" s="10"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="7:7" ht="14.25" customHeight="1">
       <c r="G520" s="10"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="7:7" ht="14.25" customHeight="1">
       <c r="G521" s="10"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="7:7" ht="14.25" customHeight="1">
       <c r="G522" s="10"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="7:7" ht="14.25" customHeight="1">
       <c r="G523" s="10"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="7:7" ht="14.25" customHeight="1">
       <c r="G524" s="10"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="7:7" ht="14.25" customHeight="1">
       <c r="G525" s="10"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="7:7" ht="14.25" customHeight="1">
       <c r="G526" s="10"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="7:7" ht="14.25" customHeight="1">
       <c r="G527" s="10"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="7:7" ht="14.25" customHeight="1">
       <c r="G528" s="10"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="7:7" ht="14.25" customHeight="1">
       <c r="G529" s="10"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="7:7" ht="14.25" customHeight="1">
       <c r="G530" s="10"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="7:7" ht="14.25" customHeight="1">
       <c r="G531" s="10"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="7:7" ht="14.25" customHeight="1">
       <c r="G532" s="10"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="7:7" ht="14.25" customHeight="1">
       <c r="G533" s="10"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="7:7" ht="14.25" customHeight="1">
       <c r="G534" s="10"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="7:7" ht="14.25" customHeight="1">
       <c r="G535" s="10"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="7:7" ht="14.25" customHeight="1">
       <c r="G536" s="10"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="7:7" ht="14.25" customHeight="1">
       <c r="G537" s="10"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="7:7" ht="14.25" customHeight="1">
       <c r="G538" s="10"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="7:7" ht="14.25" customHeight="1">
       <c r="G539" s="10"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="7:7" ht="14.25" customHeight="1">
       <c r="G540" s="10"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="7:7" ht="14.25" customHeight="1">
       <c r="G541" s="10"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="7:7" ht="14.25" customHeight="1">
       <c r="G542" s="10"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="7:7" ht="14.25" customHeight="1">
       <c r="G543" s="10"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="7:7" ht="14.25" customHeight="1">
       <c r="G544" s="10"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="7:7" ht="14.25" customHeight="1">
       <c r="G545" s="10"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="7:7" ht="14.25" customHeight="1">
       <c r="G546" s="10"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="7:7" ht="14.25" customHeight="1">
       <c r="G547" s="10"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="7:7" ht="14.25" customHeight="1">
       <c r="G548" s="10"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="7:7" ht="14.25" customHeight="1">
       <c r="G549" s="10"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="7:7" ht="14.25" customHeight="1">
       <c r="G550" s="10"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="7:7" ht="14.25" customHeight="1">
       <c r="G551" s="10"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="7:7" ht="14.25" customHeight="1">
       <c r="G552" s="10"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="7:7" ht="14.25" customHeight="1">
       <c r="G553" s="10"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="7:7" ht="14.25" customHeight="1">
       <c r="G554" s="10"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="7:7" ht="14.25" customHeight="1">
       <c r="G555" s="10"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="7:7" ht="14.25" customHeight="1">
       <c r="G556" s="10"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="7:7" ht="14.25" customHeight="1">
       <c r="G557" s="10"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="7:7" ht="14.25" customHeight="1">
       <c r="G558" s="10"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="7:7" ht="14.25" customHeight="1">
       <c r="G559" s="10"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="7:7" ht="14.25" customHeight="1">
       <c r="G560" s="10"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="7:7" ht="14.25" customHeight="1">
       <c r="G561" s="10"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="7:7" ht="14.25" customHeight="1">
       <c r="G562" s="10"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="7:7" ht="14.25" customHeight="1">
       <c r="G563" s="10"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="7:7" ht="14.25" customHeight="1">
       <c r="G564" s="10"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="7:7" ht="14.25" customHeight="1">
       <c r="G565" s="10"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="7:7" ht="14.25" customHeight="1">
       <c r="G566" s="10"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="7:7" ht="14.25" customHeight="1">
       <c r="G567" s="10"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="7:7" ht="14.25" customHeight="1">
       <c r="G568" s="10"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="7:7" ht="14.25" customHeight="1">
       <c r="G569" s="10"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="7:7" ht="14.25" customHeight="1">
       <c r="G570" s="10"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="7:7" ht="14.25" customHeight="1">
       <c r="G571" s="10"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="7:7" ht="14.25" customHeight="1">
       <c r="G572" s="10"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="7:7" ht="14.25" customHeight="1">
       <c r="G573" s="10"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="7:7" ht="14.25" customHeight="1">
       <c r="G574" s="10"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="7:7" ht="14.25" customHeight="1">
       <c r="G575" s="10"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="7:7" ht="14.25" customHeight="1">
       <c r="G576" s="10"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="7:7" ht="14.25" customHeight="1">
       <c r="G577" s="10"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="7:7" ht="14.25" customHeight="1">
       <c r="G578" s="10"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="7:7" ht="14.25" customHeight="1">
       <c r="G579" s="10"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="7:7" ht="14.25" customHeight="1">
       <c r="G580" s="10"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="7:7" ht="14.25" customHeight="1">
       <c r="G581" s="10"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="7:7" ht="14.25" customHeight="1">
       <c r="G582" s="10"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="7:7" ht="14.25" customHeight="1">
       <c r="G583" s="10"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="7:7" ht="14.25" customHeight="1">
       <c r="G584" s="10"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="7:7" ht="14.25" customHeight="1">
       <c r="G585" s="10"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="7:7" ht="14.25" customHeight="1">
       <c r="G586" s="10"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="7:7" ht="14.25" customHeight="1">
       <c r="G587" s="10"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="7:7" ht="14.25" customHeight="1">
       <c r="G588" s="10"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="7:7" ht="14.25" customHeight="1">
       <c r="G589" s="10"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="7:7" ht="14.25" customHeight="1">
       <c r="G590" s="10"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="7:7" ht="14.25" customHeight="1">
       <c r="G591" s="10"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="7:7" ht="14.25" customHeight="1">
       <c r="G592" s="10"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="7:7" ht="14.25" customHeight="1">
       <c r="G593" s="10"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="7:7" ht="14.25" customHeight="1">
       <c r="G594" s="10"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="7:7" ht="14.25" customHeight="1">
       <c r="G595" s="10"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="7:7" ht="14.25" customHeight="1">
       <c r="G596" s="10"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="7:7" ht="14.25" customHeight="1">
       <c r="G597" s="10"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="7:7" ht="14.25" customHeight="1">
       <c r="G598" s="10"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="7:7" ht="14.25" customHeight="1">
       <c r="G599" s="10"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="7:7" ht="14.25" customHeight="1">
       <c r="G600" s="10"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="7:7" ht="14.25" customHeight="1">
       <c r="G601" s="10"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="7:7" ht="14.25" customHeight="1">
       <c r="G602" s="10"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="7:7" ht="14.25" customHeight="1">
       <c r="G603" s="10"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="7:7" ht="14.25" customHeight="1">
       <c r="G604" s="10"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="7:7" ht="14.25" customHeight="1">
       <c r="G605" s="10"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="7:7" ht="14.25" customHeight="1">
       <c r="G606" s="10"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="7:7" ht="14.25" customHeight="1">
       <c r="G607" s="10"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="7:7" ht="14.25" customHeight="1">
       <c r="G608" s="10"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="7:7" ht="14.25" customHeight="1">
       <c r="G609" s="10"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="7:7" ht="14.25" customHeight="1">
       <c r="G610" s="10"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="7:7" ht="14.25" customHeight="1">
       <c r="G611" s="10"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="7:7" ht="14.25" customHeight="1">
       <c r="G612" s="10"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="7:7" ht="14.25" customHeight="1">
       <c r="G613" s="10"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="7:7" ht="14.25" customHeight="1">
       <c r="G614" s="10"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="7:7" ht="14.25" customHeight="1">
       <c r="G615" s="10"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="7:7" ht="14.25" customHeight="1">
       <c r="G616" s="10"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="7:7" ht="14.25" customHeight="1">
       <c r="G617" s="10"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="7:7" ht="14.25" customHeight="1">
       <c r="G618" s="10"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="7:7" ht="14.25" customHeight="1">
       <c r="G619" s="10"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="7:7" ht="14.25" customHeight="1">
       <c r="G620" s="10"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="7:7" ht="14.25" customHeight="1">
       <c r="G621" s="10"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="7:7" ht="14.25" customHeight="1">
       <c r="G622" s="10"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="7:7" ht="14.25" customHeight="1">
       <c r="G623" s="10"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="7:7" ht="14.25" customHeight="1">
       <c r="G624" s="10"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="7:7" ht="14.25" customHeight="1">
       <c r="G625" s="10"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="7:7" ht="14.25" customHeight="1">
       <c r="G626" s="10"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="7:7" ht="14.25" customHeight="1">
       <c r="G627" s="10"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="7:7" ht="14.25" customHeight="1">
       <c r="G628" s="10"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="7:7" ht="14.25" customHeight="1">
       <c r="G629" s="10"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="7:7" ht="14.25" customHeight="1">
       <c r="G630" s="10"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="7:7" ht="14.25" customHeight="1">
       <c r="G631" s="10"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="7:7" ht="14.25" customHeight="1">
       <c r="G632" s="10"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="7:7" ht="14.25" customHeight="1">
       <c r="G633" s="10"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="7:7" ht="14.25" customHeight="1">
       <c r="G634" s="10"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="7:7" ht="14.25" customHeight="1">
       <c r="G635" s="10"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="7:7" ht="14.25" customHeight="1">
       <c r="G636" s="10"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="7:7" ht="14.25" customHeight="1">
       <c r="G637" s="10"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="7:7" ht="14.25" customHeight="1">
       <c r="G638" s="10"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="7:7" ht="14.25" customHeight="1">
       <c r="G639" s="10"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="7:7" ht="14.25" customHeight="1">
       <c r="G640" s="10"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="7:7" ht="14.25" customHeight="1">
       <c r="G641" s="10"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="7:7" ht="14.25" customHeight="1">
       <c r="G642" s="10"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="7:7" ht="14.25" customHeight="1">
       <c r="G643" s="10"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="7:7" ht="14.25" customHeight="1">
       <c r="G644" s="10"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="7:7" ht="14.25" customHeight="1">
       <c r="G645" s="10"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="7:7" ht="14.25" customHeight="1">
       <c r="G646" s="10"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="7:7" ht="14.25" customHeight="1">
       <c r="G647" s="10"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="7:7" ht="14.25" customHeight="1">
       <c r="G648" s="10"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="7:7" ht="14.25" customHeight="1">
       <c r="G649" s="10"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="7:7" ht="14.25" customHeight="1">
       <c r="G650" s="10"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="7:7" ht="14.25" customHeight="1">
       <c r="G651" s="10"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="7:7" ht="14.25" customHeight="1">
       <c r="G652" s="10"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="7:7" ht="14.25" customHeight="1">
       <c r="G653" s="10"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="7:7" ht="14.25" customHeight="1">
       <c r="G654" s="10"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="7:7" ht="14.25" customHeight="1">
       <c r="G655" s="10"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="7:7" ht="14.25" customHeight="1">
       <c r="G656" s="10"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="7:7" ht="14.25" customHeight="1">
       <c r="G657" s="10"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="7:7" ht="14.25" customHeight="1">
       <c r="G658" s="10"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="7:7" ht="14.25" customHeight="1">
       <c r="G659" s="10"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="7:7" ht="14.25" customHeight="1">
       <c r="G660" s="10"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="7:7" ht="14.25" customHeight="1">
       <c r="G661" s="10"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="7:7" ht="14.25" customHeight="1">
       <c r="G662" s="10"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="7:7" ht="14.25" customHeight="1">
       <c r="G663" s="10"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="7:7" ht="14.25" customHeight="1">
       <c r="G664" s="10"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="7:7" ht="14.25" customHeight="1">
       <c r="G665" s="10"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="7:7" ht="14.25" customHeight="1">
       <c r="G666" s="10"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="7:7" ht="14.25" customHeight="1">
       <c r="G667" s="10"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="7:7" ht="14.25" customHeight="1">
       <c r="G668" s="10"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="7:7" ht="14.25" customHeight="1">
       <c r="G669" s="10"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="7:7" ht="14.25" customHeight="1">
       <c r="G670" s="10"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="7:7" ht="14.25" customHeight="1">
       <c r="G671" s="10"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="7:7" ht="14.25" customHeight="1">
       <c r="G672" s="10"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="7:7" ht="14.25" customHeight="1">
       <c r="G673" s="10"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="7:7" ht="14.25" customHeight="1">
       <c r="G674" s="10"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="7:7" ht="14.25" customHeight="1">
       <c r="G675" s="10"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="7:7" ht="14.25" customHeight="1">
       <c r="G676" s="10"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="7:7" ht="14.25" customHeight="1">
       <c r="G677" s="10"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="7:7" ht="14.25" customHeight="1">
       <c r="G678" s="10"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="7:7" ht="14.25" customHeight="1">
       <c r="G679" s="10"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="7:7" ht="14.25" customHeight="1">
       <c r="G680" s="10"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="7:7" ht="14.25" customHeight="1">
       <c r="G681" s="10"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="7:7" ht="14.25" customHeight="1">
       <c r="G682" s="10"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="7:7" ht="14.25" customHeight="1">
       <c r="G683" s="10"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="7:7" ht="14.25" customHeight="1">
       <c r="G684" s="10"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="7:7" ht="14.25" customHeight="1">
       <c r="G685" s="10"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="7:7" ht="14.25" customHeight="1">
       <c r="G686" s="10"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="7:7" ht="14.25" customHeight="1">
       <c r="G687" s="10"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="7:7" ht="14.25" customHeight="1">
       <c r="G688" s="10"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="7:7" ht="14.25" customHeight="1">
       <c r="G689" s="10"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="7:7" ht="14.25" customHeight="1">
       <c r="G690" s="10"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="7:7" ht="14.25" customHeight="1">
       <c r="G691" s="10"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="7:7" ht="14.25" customHeight="1">
       <c r="G692" s="10"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="7:7" ht="14.25" customHeight="1">
       <c r="G693" s="10"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="7:7" ht="14.25" customHeight="1">
       <c r="G694" s="10"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="7:7" ht="14.25" customHeight="1">
       <c r="G695" s="10"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="7:7" ht="14.25" customHeight="1">
       <c r="G696" s="10"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="7:7" ht="14.25" customHeight="1">
       <c r="G697" s="10"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="7:7" ht="14.25" customHeight="1">
       <c r="G698" s="10"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="7:7" ht="14.25" customHeight="1">
       <c r="G699" s="10"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="7:7" ht="14.25" customHeight="1">
       <c r="G700" s="10"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="7:7" ht="14.25" customHeight="1">
       <c r="G701" s="10"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="7:7" ht="14.25" customHeight="1">
       <c r="G702" s="10"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="7:7" ht="14.25" customHeight="1">
       <c r="G703" s="10"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="7:7" ht="14.25" customHeight="1">
       <c r="G704" s="10"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="7:7" ht="14.25" customHeight="1">
       <c r="G705" s="10"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="7:7" ht="14.25" customHeight="1">
       <c r="G706" s="10"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="7:7" ht="14.25" customHeight="1">
       <c r="G707" s="10"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="7:7" ht="14.25" customHeight="1">
       <c r="G708" s="10"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="7:7" ht="14.25" customHeight="1">
       <c r="G709" s="10"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="7:7" ht="14.25" customHeight="1">
       <c r="G710" s="10"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="7:7" ht="14.25" customHeight="1">
       <c r="G711" s="10"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="7:7" ht="14.25" customHeight="1">
       <c r="G712" s="10"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="7:7" ht="14.25" customHeight="1">
       <c r="G713" s="10"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="7:7" ht="14.25" customHeight="1">
       <c r="G714" s="10"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="7:7" ht="14.25" customHeight="1">
       <c r="G715" s="10"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="7:7" ht="14.25" customHeight="1">
       <c r="G716" s="10"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="7:7" ht="14.25" customHeight="1">
       <c r="G717" s="10"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="7:7" ht="14.25" customHeight="1">
       <c r="G718" s="10"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="7:7" ht="14.25" customHeight="1">
       <c r="G719" s="10"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="7:7" ht="14.25" customHeight="1">
       <c r="G720" s="10"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="7:7" ht="14.25" customHeight="1">
       <c r="G721" s="10"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="7:7" ht="14.25" customHeight="1">
       <c r="G722" s="10"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="7:7" ht="14.25" customHeight="1">
       <c r="G723" s="10"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="7:7" ht="14.25" customHeight="1">
       <c r="G724" s="10"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="7:7" ht="14.25" customHeight="1">
       <c r="G725" s="10"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="7:7" ht="14.25" customHeight="1">
       <c r="G726" s="10"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="7:7" ht="14.25" customHeight="1">
       <c r="G727" s="10"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="7:7" ht="14.25" customHeight="1">
       <c r="G728" s="10"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="7:7" ht="14.25" customHeight="1">
       <c r="G729" s="10"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="7:7" ht="14.25" customHeight="1">
       <c r="G730" s="10"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="7:7" ht="14.25" customHeight="1">
       <c r="G731" s="10"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="7:7" ht="14.25" customHeight="1">
       <c r="G732" s="10"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="7:7" ht="14.25" customHeight="1">
       <c r="G733" s="10"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="7:7" ht="14.25" customHeight="1">
       <c r="G734" s="10"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="7:7" ht="14.25" customHeight="1">
       <c r="G735" s="10"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="7:7" ht="14.25" customHeight="1">
       <c r="G736" s="10"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="7:7" ht="14.25" customHeight="1">
       <c r="G737" s="10"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="7:7" ht="14.25" customHeight="1">
       <c r="G738" s="10"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="7:7" ht="14.25" customHeight="1">
       <c r="G739" s="10"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="7:7" ht="14.25" customHeight="1">
       <c r="G740" s="10"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="7:7" ht="14.25" customHeight="1">
       <c r="G741" s="10"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="7:7" ht="14.25" customHeight="1">
       <c r="G742" s="10"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="7:7" ht="14.25" customHeight="1">
       <c r="G743" s="10"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="7:7" ht="14.25" customHeight="1">
       <c r="G744" s="10"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="7:7" ht="14.25" customHeight="1">
       <c r="G745" s="10"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="7:7" ht="14.25" customHeight="1">
       <c r="G746" s="10"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="7:7" ht="14.25" customHeight="1">
       <c r="G747" s="10"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="7:7" ht="14.25" customHeight="1">
       <c r="G748" s="10"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="7:7" ht="14.25" customHeight="1">
       <c r="G749" s="10"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="7:7" ht="14.25" customHeight="1">
       <c r="G750" s="10"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="7:7" ht="14.25" customHeight="1">
       <c r="G751" s="10"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="7:7" ht="14.25" customHeight="1">
       <c r="G752" s="10"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="7:7" ht="14.25" customHeight="1">
       <c r="G753" s="10"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="7:7" ht="14.25" customHeight="1">
       <c r="G754" s="10"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="7:7" ht="14.25" customHeight="1">
       <c r="G755" s="10"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="7:7" ht="14.25" customHeight="1">
       <c r="G756" s="10"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="7:7" ht="14.25" customHeight="1">
       <c r="G757" s="10"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="7:7" ht="14.25" customHeight="1">
       <c r="G758" s="10"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="7:7" ht="14.25" customHeight="1">
       <c r="G759" s="10"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="7:7" ht="14.25" customHeight="1">
       <c r="G760" s="10"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="7:7" ht="14.25" customHeight="1">
       <c r="G761" s="10"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="7:7" ht="14.25" customHeight="1">
       <c r="G762" s="10"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="7:7" ht="14.25" customHeight="1">
       <c r="G763" s="10"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="7:7" ht="14.25" customHeight="1">
       <c r="G764" s="10"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="7:7" ht="14.25" customHeight="1">
       <c r="G765" s="10"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="7:7" ht="14.25" customHeight="1">
       <c r="G766" s="10"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="7:7" ht="14.25" customHeight="1">
       <c r="G767" s="10"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="7:7" ht="14.25" customHeight="1">
       <c r="G768" s="10"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="7:7" ht="14.25" customHeight="1">
       <c r="G769" s="10"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="7:7" ht="14.25" customHeight="1">
       <c r="G770" s="10"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="7:7" ht="14.25" customHeight="1">
       <c r="G771" s="10"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="7:7" ht="14.25" customHeight="1">
       <c r="G772" s="10"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="7:7" ht="14.25" customHeight="1">
       <c r="G773" s="10"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="7:7" ht="14.25" customHeight="1">
       <c r="G774" s="10"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="7:7" ht="14.25" customHeight="1">
       <c r="G775" s="10"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="7:7" ht="14.25" customHeight="1">
       <c r="G776" s="10"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="7:7" ht="14.25" customHeight="1">
       <c r="G777" s="10"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="7:7" ht="14.25" customHeight="1">
       <c r="G778" s="10"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="7:7" ht="14.25" customHeight="1">
       <c r="G779" s="10"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="7:7" ht="14.25" customHeight="1">
       <c r="G780" s="10"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="7:7" ht="14.25" customHeight="1">
       <c r="G781" s="10"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="7:7" ht="14.25" customHeight="1">
       <c r="G782" s="10"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="7:7" ht="14.25" customHeight="1">
       <c r="G783" s="10"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="7:7" ht="14.25" customHeight="1">
       <c r="G784" s="10"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="7:7" ht="14.25" customHeight="1">
       <c r="G785" s="10"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="7:7" ht="14.25" customHeight="1">
       <c r="G786" s="10"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="7:7" ht="14.25" customHeight="1">
       <c r="G787" s="10"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="7:7" ht="14.25" customHeight="1">
       <c r="G788" s="10"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="7:7" ht="14.25" customHeight="1">
       <c r="G789" s="10"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="7:7" ht="14.25" customHeight="1">
       <c r="G790" s="10"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="7:7" ht="14.25" customHeight="1">
       <c r="G791" s="10"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="7:7" ht="14.25" customHeight="1">
       <c r="G792" s="10"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="7:7" ht="14.25" customHeight="1">
       <c r="G793" s="10"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="7:7" ht="14.25" customHeight="1">
       <c r="G794" s="10"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="7:7" ht="14.25" customHeight="1">
       <c r="G795" s="10"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="7:7" ht="14.25" customHeight="1">
       <c r="G796" s="10"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="7:7" ht="14.25" customHeight="1">
       <c r="G797" s="10"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="7:7" ht="14.25" customHeight="1">
       <c r="G798" s="10"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="7:7" ht="14.25" customHeight="1">
       <c r="G799" s="10"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="7:7" ht="14.25" customHeight="1">
       <c r="G800" s="10"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="7:7" ht="14.25" customHeight="1">
       <c r="G801" s="10"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="7:7" ht="14.25" customHeight="1">
       <c r="G802" s="10"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="7:7" ht="14.25" customHeight="1">
       <c r="G803" s="10"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="7:7" ht="14.25" customHeight="1">
       <c r="G804" s="10"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="7:7" ht="14.25" customHeight="1">
       <c r="G805" s="10"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="7:7" ht="14.25" customHeight="1">
       <c r="G806" s="10"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="7:7" ht="14.25" customHeight="1">
       <c r="G807" s="10"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="7:7" ht="14.25" customHeight="1">
       <c r="G808" s="10"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="7:7" ht="14.25" customHeight="1">
       <c r="G809" s="10"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="7:7" ht="14.25" customHeight="1">
       <c r="G810" s="10"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="7:7" ht="14.25" customHeight="1">
       <c r="G811" s="10"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="7:7" ht="14.25" customHeight="1">
       <c r="G812" s="10"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="7:7" ht="14.25" customHeight="1">
       <c r="G813" s="10"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="7:7" ht="14.25" customHeight="1">
       <c r="G814" s="10"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="7:7" ht="14.25" customHeight="1">
       <c r="G815" s="10"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="7:7" ht="14.25" customHeight="1">
       <c r="G816" s="10"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="7:7" ht="14.25" customHeight="1">
       <c r="G817" s="10"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="7:7" ht="14.25" customHeight="1">
       <c r="G818" s="10"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="7:7" ht="14.25" customHeight="1">
       <c r="G819" s="10"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="7:7" ht="14.25" customHeight="1">
       <c r="G820" s="10"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="7:7" ht="14.25" customHeight="1">
       <c r="G821" s="10"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="7:7" ht="14.25" customHeight="1">
       <c r="G822" s="10"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="7:7" ht="14.25" customHeight="1">
       <c r="G823" s="10"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="7:7" ht="14.25" customHeight="1">
       <c r="G824" s="10"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="7:7" ht="14.25" customHeight="1">
       <c r="G825" s="10"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="7:7" ht="14.25" customHeight="1">
       <c r="G826" s="10"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="7:7" ht="14.25" customHeight="1">
       <c r="G827" s="10"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="7:7" ht="14.25" customHeight="1">
       <c r="G828" s="10"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="7:7" ht="14.25" customHeight="1">
       <c r="G829" s="10"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="7:7" ht="14.25" customHeight="1">
       <c r="G830" s="10"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="7:7" ht="14.25" customHeight="1">
       <c r="G831" s="10"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="7:7" ht="14.25" customHeight="1">
       <c r="G832" s="10"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="7:7" ht="14.25" customHeight="1">
       <c r="G833" s="10"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="7:7" ht="14.25" customHeight="1">
       <c r="G834" s="10"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="7:7" ht="14.25" customHeight="1">
       <c r="G835" s="10"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="7:7" ht="14.25" customHeight="1">
       <c r="G836" s="10"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="7:7" ht="14.25" customHeight="1">
       <c r="G837" s="10"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="7:7" ht="14.25" customHeight="1">
       <c r="G838" s="10"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="7:7" ht="14.25" customHeight="1">
       <c r="G839" s="10"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="7:7" ht="14.25" customHeight="1">
       <c r="G840" s="10"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="7:7" ht="14.25" customHeight="1">
       <c r="G841" s="10"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="7:7" ht="14.25" customHeight="1">
       <c r="G842" s="10"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="7:7" ht="14.25" customHeight="1">
       <c r="G843" s="10"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="7:7" ht="14.25" customHeight="1">
       <c r="G844" s="10"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="7:7" ht="14.25" customHeight="1">
       <c r="G845" s="10"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="7:7" ht="14.25" customHeight="1">
       <c r="G846" s="10"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="7:7" ht="14.25" customHeight="1">
       <c r="G847" s="10"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="7:7" ht="14.25" customHeight="1">
       <c r="G848" s="10"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="7:7" ht="14.25" customHeight="1">
       <c r="G849" s="10"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="7:7" ht="14.25" customHeight="1">
       <c r="G850" s="10"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="7:7" ht="14.25" customHeight="1">
       <c r="G851" s="10"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="7:7" ht="14.25" customHeight="1">
       <c r="G852" s="10"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="7:7" ht="14.25" customHeight="1">
       <c r="G853" s="10"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="7:7" ht="14.25" customHeight="1">
       <c r="G854" s="10"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="7:7" ht="14.25" customHeight="1">
       <c r="G855" s="10"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="7:7" ht="14.25" customHeight="1">
       <c r="G856" s="10"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="7:7" ht="14.25" customHeight="1">
       <c r="G857" s="10"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="7:7" ht="14.25" customHeight="1">
       <c r="G858" s="10"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="7:7" ht="14.25" customHeight="1">
       <c r="G859" s="10"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="7:7" ht="14.25" customHeight="1">
       <c r="G860" s="10"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="7:7" ht="14.25" customHeight="1">
       <c r="G861" s="10"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="7:7" ht="14.25" customHeight="1">
       <c r="G862" s="10"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="7:7" ht="14.25" customHeight="1">
       <c r="G863" s="10"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="7:7" ht="14.25" customHeight="1">
       <c r="G864" s="10"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="7:7" ht="14.25" customHeight="1">
       <c r="G865" s="10"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="7:7" ht="14.25" customHeight="1">
       <c r="G866" s="10"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="7:7" ht="14.25" customHeight="1">
       <c r="G867" s="10"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="7:7" ht="14.25" customHeight="1">
       <c r="G868" s="10"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="7:7" ht="14.25" customHeight="1">
       <c r="G869" s="10"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="7:7" ht="14.25" customHeight="1">
       <c r="G870" s="10"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="7:7" ht="14.25" customHeight="1">
       <c r="G871" s="10"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="7:7" ht="14.25" customHeight="1">
       <c r="G872" s="10"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="7:7" ht="14.25" customHeight="1">
       <c r="G873" s="10"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="7:7" ht="14.25" customHeight="1">
       <c r="G874" s="10"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="7:7" ht="14.25" customHeight="1">
       <c r="G875" s="10"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="7:7" ht="14.25" customHeight="1">
       <c r="G876" s="10"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="7:7" ht="14.25" customHeight="1">
       <c r="G877" s="10"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="7:7" ht="14.25" customHeight="1">
       <c r="G878" s="10"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="7:7" ht="14.25" customHeight="1">
       <c r="G879" s="10"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="7:7" ht="14.25" customHeight="1">
       <c r="G880" s="10"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="7:7" ht="14.25" customHeight="1">
       <c r="G881" s="10"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="7:7" ht="14.25" customHeight="1">
       <c r="G882" s="10"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="7:7" ht="14.25" customHeight="1">
       <c r="G883" s="10"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="7:7" ht="14.25" customHeight="1">
       <c r="G884" s="10"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="7:7" ht="14.25" customHeight="1">
       <c r="G885" s="10"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="7:7" ht="14.25" customHeight="1">
       <c r="G886" s="10"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="7:7" ht="14.25" customHeight="1">
       <c r="G887" s="10"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="7:7" ht="14.25" customHeight="1">
       <c r="G888" s="10"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="7:7" ht="14.25" customHeight="1">
       <c r="G889" s="10"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="7:7" ht="14.25" customHeight="1">
       <c r="G890" s="10"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="7:7" ht="14.25" customHeight="1">
       <c r="G891" s="10"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="7:7" ht="14.25" customHeight="1">
       <c r="G892" s="10"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="7:7" ht="14.25" customHeight="1">
       <c r="G893" s="10"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="7:7" ht="14.25" customHeight="1">
       <c r="G894" s="10"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="7:7" ht="14.25" customHeight="1">
       <c r="G895" s="10"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="7:7" ht="14.25" customHeight="1">
       <c r="G896" s="10"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="7:7" ht="14.25" customHeight="1">
       <c r="G897" s="10"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="7:7" ht="14.25" customHeight="1">
       <c r="G898" s="10"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="7:7" ht="14.25" customHeight="1">
       <c r="G899" s="10"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="7:7" ht="14.25" customHeight="1">
       <c r="G900" s="10"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="7:7" ht="14.25" customHeight="1">
       <c r="G901" s="10"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="7:7" ht="14.25" customHeight="1">
       <c r="G902" s="10"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="7:7" ht="14.25" customHeight="1">
       <c r="G903" s="10"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="7:7" ht="14.25" customHeight="1">
       <c r="G904" s="10"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="7:7" ht="14.25" customHeight="1">
       <c r="G905" s="10"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="7:7" ht="14.25" customHeight="1">
       <c r="G906" s="10"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="7:7" ht="14.25" customHeight="1">
       <c r="G907" s="10"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="7:7" ht="14.25" customHeight="1">
       <c r="G908" s="10"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="7:7" ht="14.25" customHeight="1">
       <c r="G909" s="10"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="7:7" ht="14.25" customHeight="1">
       <c r="G910" s="10"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="7:7" ht="14.25" customHeight="1">
       <c r="G911" s="10"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="7:7" ht="14.25" customHeight="1">
       <c r="G912" s="10"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="7:7" ht="14.25" customHeight="1">
       <c r="G913" s="10"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="7:7" ht="14.25" customHeight="1">
       <c r="G914" s="10"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="7:7" ht="14.25" customHeight="1">
       <c r="G915" s="10"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="7:7" ht="14.25" customHeight="1">
       <c r="G916" s="10"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="7:7" ht="14.25" customHeight="1">
       <c r="G917" s="10"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="7:7" ht="14.25" customHeight="1">
       <c r="G918" s="10"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="7:7" ht="14.25" customHeight="1">
       <c r="G919" s="10"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="7:7" ht="14.25" customHeight="1">
       <c r="G920" s="10"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="7:7" ht="14.25" customHeight="1">
       <c r="G921" s="10"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="7:7" ht="14.25" customHeight="1">
       <c r="G922" s="10"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="7:7" ht="14.25" customHeight="1">
       <c r="G923" s="10"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="7:7" ht="14.25" customHeight="1">
       <c r="G924" s="10"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="7:7" ht="14.25" customHeight="1">
       <c r="G925" s="10"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="7:7" ht="14.25" customHeight="1">
       <c r="G926" s="10"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="7:7" ht="14.25" customHeight="1">
       <c r="G927" s="10"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="7:7" ht="14.25" customHeight="1">
       <c r="G928" s="10"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="7:7" ht="14.25" customHeight="1">
       <c r="G929" s="10"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="7:7" ht="14.25" customHeight="1">
       <c r="G930" s="10"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="7:7" ht="14.25" customHeight="1">
       <c r="G931" s="10"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="7:7" ht="14.25" customHeight="1">
       <c r="G932" s="10"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="7:7" ht="14.25" customHeight="1">
       <c r="G933" s="10"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="7:7" ht="14.25" customHeight="1">
       <c r="G934" s="10"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="7:7" ht="14.25" customHeight="1">
       <c r="G935" s="10"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="7:7" ht="14.25" customHeight="1">
       <c r="G936" s="10"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="7:7" ht="14.25" customHeight="1">
       <c r="G937" s="10"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="7:7" ht="14.25" customHeight="1">
       <c r="G938" s="10"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="7:7" ht="14.25" customHeight="1">
       <c r="G939" s="10"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="7:7" ht="14.25" customHeight="1">
       <c r="G940" s="10"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="7:7" ht="14.25" customHeight="1">
       <c r="G941" s="10"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="7:7" ht="14.25" customHeight="1">
       <c r="G942" s="10"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="7:7" ht="14.25" customHeight="1">
       <c r="G943" s="10"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="7:7" ht="14.25" customHeight="1">
       <c r="G944" s="10"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="7:7" ht="14.25" customHeight="1">
       <c r="G945" s="10"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="7:7" ht="14.25" customHeight="1">
       <c r="G946" s="10"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="7:7" ht="14.25" customHeight="1">
       <c r="G947" s="10"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="7:7" ht="14.25" customHeight="1">
       <c r="G948" s="10"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="7:7" ht="14.25" customHeight="1">
       <c r="G949" s="10"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="7:7" ht="14.25" customHeight="1">
       <c r="G950" s="10"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="7:7" ht="14.25" customHeight="1">
       <c r="G951" s="10"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="7:7" ht="14.25" customHeight="1">
       <c r="G952" s="10"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="7:7" ht="14.25" customHeight="1">
       <c r="G953" s="10"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="7:7" ht="14.25" customHeight="1">
       <c r="G954" s="10"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="7:7" ht="14.25" customHeight="1">
       <c r="G955" s="10"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="7:7" ht="14.25" customHeight="1">
       <c r="G956" s="10"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="7:7" ht="14.25" customHeight="1">
       <c r="G957" s="10"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="7:7" ht="14.25" customHeight="1">
       <c r="G958" s="10"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="7:7" ht="14.25" customHeight="1">
       <c r="G959" s="10"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="7:7" ht="14.25" customHeight="1">
       <c r="G960" s="10"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="7:7" ht="14.25" customHeight="1">
       <c r="G961" s="10"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="7:7" ht="14.25" customHeight="1">
       <c r="G962" s="10"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="7:7" ht="14.25" customHeight="1">
       <c r="G963" s="10"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="7:7" ht="14.25" customHeight="1">
       <c r="G964" s="10"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="7:7" ht="14.25" customHeight="1">
       <c r="G965" s="10"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="7:7" ht="14.25" customHeight="1">
       <c r="G966" s="10"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="7:7" ht="14.25" customHeight="1">
       <c r="G967" s="10"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="7:7" ht="14.25" customHeight="1">
       <c r="G968" s="10"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="7:7" ht="14.25" customHeight="1">
       <c r="G969" s="10"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="7:7" ht="14.25" customHeight="1">
       <c r="G970" s="10"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="7:7" ht="14.25" customHeight="1">
       <c r="G971" s="10"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="7:7" ht="14.25" customHeight="1">
       <c r="G972" s="10"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="7:7" ht="14.25" customHeight="1">
       <c r="G973" s="10"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="7:7" ht="14.25" customHeight="1">
       <c r="G974" s="10"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="7:7" ht="14.25" customHeight="1">
       <c r="G975" s="10"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="7:7" ht="14.25" customHeight="1">
       <c r="G976" s="10"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="7:7" ht="14.25" customHeight="1">
       <c r="G977" s="10"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="7:7" ht="14.25" customHeight="1">
       <c r="G978" s="10"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="7:7" ht="14.25" customHeight="1">
       <c r="G979" s="10"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="7:7" ht="14.25" customHeight="1">
       <c r="G980" s="10"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="7:7" ht="14.25" customHeight="1">
       <c r="G981" s="10"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="7:7" ht="14.25" customHeight="1">
       <c r="G982" s="10"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="7:7" ht="14.25" customHeight="1">
       <c r="G983" s="10"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="7:7" ht="14.25" customHeight="1">
       <c r="G984" s="10"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="7:7" ht="14.25" customHeight="1">
       <c r="G985" s="10"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="7:7" ht="14.25" customHeight="1">
       <c r="G986" s="10"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="7:7" ht="14.25" customHeight="1">
       <c r="G987" s="10"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="7:7" ht="14.25" customHeight="1">
       <c r="G988" s="10"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="7:7" ht="14.25" customHeight="1">
       <c r="G989" s="10"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="7:7" ht="14.25" customHeight="1">
       <c r="G990" s="10"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="7:7" ht="14.25" customHeight="1">
       <c r="G991" s="10"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="7:7" ht="14.25" customHeight="1">
       <c r="G992" s="10"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="7:7" ht="14.25" customHeight="1">
       <c r="G993" s="10"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="7:7" ht="14.25" customHeight="1">
       <c r="G994" s="10"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="7:7" ht="14.25" customHeight="1">
       <c r="G995" s="10"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E3">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Open,Closed"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="2:2" ht="14.25" customHeight="1">
       <c r="B1" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="2:2" ht="14.25" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="3" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="4" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="5" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="6" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="7" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="8" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="9" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="10" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="11" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="12" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="13" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="14" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="15" spans="2:2" ht="14.25" customHeight="1"/>
+    <row r="16" spans="2:2" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -8105,101 +8246,97 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="11.14"/>
-    <col customWidth="1" min="3" max="12" width="8.71"/>
-    <col customWidth="1" min="13" max="13" width="10.57"/>
-    <col customWidth="1" min="14" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="14.25" customHeight="1"/>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="15" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <f>COUNTIFS(PMP!E2:E1048572,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="16">
         <f>COUNTIFS(SRS!E2:E1048571,"Open")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A4" s="18"/>
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <f>COUNTIFS(PMP!E2:E1048572,"Closed")</f>
         <v>2</v>
       </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="18" t="s">
+      <c r="L4" s="18"/>
+      <c r="M4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="16">
         <f>COUNTIFS(SRS!E2:E1048571,"Closed")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <f>SUM(C3:C4)</f>
         <v>2</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="18" t="s">
+      <c r="L5" s="19"/>
+      <c r="M5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="16">
         <f>SUM(N3:N4)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:14" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:14" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -9189,8 +9326,7 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="L3:L5"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Monitor and Control/Car-Reviews.xlsx
+++ b/Monitor and Control/Car-Reviews.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="73">
   <si>
     <t>version No.</t>
   </si>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t xml:space="preserve">In the requirement Req-User-Log -002 change description of  password from valid password that matches username to a password that corresponds to the entered username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -5067,7 +5071,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5512,14 +5516,12 @@
         <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="15">
-        <v>44688</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -5538,14 +5540,12 @@
         <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="15">
-        <v>44688</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H18" s="9"/>

--- a/Monitor and Control/Car-Reviews.xlsx
+++ b/Monitor and Control/Car-Reviews.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="117">
   <si>
     <t>Version No.</t>
   </si>
@@ -383,6 +383,21 @@
   </si>
   <si>
     <t>Coding</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Removed feature</t>
+  </si>
+  <si>
+    <t>Eng.Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Upated CM section to clarify the release version on GitHub (Vx)</t>
   </si>
 </sst>
 </file>
@@ -756,11 +771,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -773,6 +783,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,7 +795,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="52">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA8D08D"/>
+          <bgColor rgb="FFA8D08D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7CAAC"/>
+          <bgColor rgb="FFF7CAAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1326,10 +1373,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2025,9 +2072,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2057,10 +2102,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3035,8 +3080,8 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3499,15 +3544,40 @@
         <v>34</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1">
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="H20" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="15">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="15">
+        <v>44695</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="15">
+        <v>44701</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1">
       <c r="E21" s="10"/>
@@ -7630,23 +7700,43 @@
       <c r="F1000" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+  <conditionalFormatting sqref="F1:F19 F21:F1000">
+    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+  <conditionalFormatting sqref="F1:F19 F21:F1000">
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+  <conditionalFormatting sqref="F1:F19 F21:F1000">
+    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1000">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+  <conditionalFormatting sqref="F1:F19 F21:F1000">
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7672,8 +7762,8 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -11332,42 +11422,42 @@
   </sheetData>
   <autoFilter ref="A1:H1"/>
   <conditionalFormatting sqref="F1:F17 F19:F1000">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F19:F1000">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F19:F1000">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F17 F19:F1000">
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11395,7 +11485,7 @@
   </sheetPr>
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -11614,7 +11704,7 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="35.25" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -11702,7 +11792,7 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="35.25" customHeight="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -11818,25 +11908,25 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="35.25" customHeight="1">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="30" t="s">
         <v>102</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="31" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="26">
         <v>44694</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="32" t="s">
         <v>103</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="31" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="15">
@@ -11862,25 +11952,25 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="35.25" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="31" t="s">
         <v>33</v>
       </c>
       <c r="D12" s="26">
         <v>44694</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="32" t="s">
         <v>105</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="31" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="15">
@@ -11906,25 +11996,25 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="35.25" customHeight="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
         <v>106</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="31" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="26">
         <v>44694</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="32" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="31" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="15">
@@ -11950,7 +12040,7 @@
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="57.6" customHeight="1">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="31" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -11962,7 +12052,7 @@
       <c r="D14" s="26">
         <v>44692</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="32" t="s">
         <v>60</v>
       </c>
       <c r="F14" s="24" t="s">
@@ -11976,7 +12066,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="57.6" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B15" s="24" t="s">
@@ -11988,7 +12078,7 @@
       <c r="D15" s="26">
         <v>44694</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="32" t="s">
         <v>110</v>
       </c>
       <c r="F15" s="24" t="s">
@@ -39499,122 +39589,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39639,8 +39729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -39650,12 +39740,14 @@
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="53.44140625" customWidth="1"/>
-    <col min="6" max="8" width="27.109375" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="9" width="27.109375" customWidth="1"/>
+    <col min="10" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:26" ht="20.399999999999999" customHeight="1" thickBot="1">
+      <c r="A1" s="29" t="s">
         <v>101</v>
       </c>
     </row>
@@ -39684,7 +39776,9 @@
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5"/>
+      <c r="I2" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="35.25" customHeight="1">
@@ -39694,7 +39788,7 @@
       <c r="B3" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="26">
@@ -39706,13 +39800,13 @@
       <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="31" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="15">
         <v>44695</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="31"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -39756,7 +39850,7 @@
       <c r="H4" s="15">
         <v>44695</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -39795,12 +39889,12 @@
         <v>12</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="H5" s="15">
         <v>44695</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -39844,7 +39938,7 @@
       <c r="H6" s="15">
         <v>44695</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -39864,10 +39958,10 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="35.25" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -39883,12 +39977,12 @@
         <v>12</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="H7" s="15">
         <v>44695</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -39932,7 +40026,7 @@
       <c r="H8" s="15">
         <v>44694</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -39971,12 +40065,12 @@
         <v>12</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="H9" s="15">
         <v>44695</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -39996,11 +40090,11 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="35.25" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>33</v>
@@ -40017,8 +40111,10 @@
       <c r="G10" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="15">
+        <v>44694</v>
+      </c>
+      <c r="I10" s="24"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -40038,7 +40134,7 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="21.6" customHeight="1" thickBot="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -40067,7 +40163,7 @@
       <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="35.25" customHeight="1">
@@ -40091,7 +40187,7 @@
       </c>
       <c r="G13" s="24"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -40135,7 +40231,7 @@
       <c r="H14" s="15">
         <v>44695</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -40179,7 +40275,7 @@
       <c r="H15" s="15">
         <v>44695</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -40215,11 +40311,17 @@
         <v>75</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="15">
+        <v>44696</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>114</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -41230,62 +41332,62 @@
   </sheetData>
   <autoFilter ref="A2:H15"/>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41310,8 +41412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -41350,7 +41452,7 @@
       <c r="X1" s="27"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -41358,7 +41460,7 @@
       </c>
       <c r="C2" s="28">
         <f>COUNTIFS(PMP!F:F,"Open")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -41368,7 +41470,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="33" t="s">
         <v>94</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -41390,13 +41492,13 @@
       <c r="X2" s="27"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A3" s="30"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="28">
         <f>COUNTIFS(PMP!F:F,"Closed")</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -41406,7 +41508,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="30"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="28" t="s">
         <v>12</v>
       </c>
@@ -41426,7 +41528,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="28" t="s">
         <v>95</v>
       </c>
@@ -41442,7 +41544,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="30"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="28" t="s">
         <v>95</v>
       </c>
@@ -41462,7 +41564,7 @@
       <c r="X4" s="27"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="28" t="s">
         <v>96</v>
       </c>
@@ -41478,7 +41580,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
-      <c r="L5" s="30"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="28" t="s">
         <v>96</v>
       </c>
@@ -41498,13 +41600,13 @@
       <c r="X5" s="27"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A6" s="31"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="28" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="28">
         <f>SUM(C2:C5)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -41514,7 +41616,7 @@
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
-      <c r="L6" s="31"/>
+      <c r="L6" s="35"/>
       <c r="M6" s="28" t="s">
         <v>97</v>
       </c>
@@ -41924,7 +42026,7 @@
       <c r="X21" s="27"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -41950,7 +42052,7 @@
       </c>
       <c r="N22" s="28">
         <f>COUNTIFS(Coding!F:F,"Open")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
@@ -41964,7 +42066,7 @@
       <c r="X22" s="27"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A23" s="30"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="28" t="s">
         <v>12</v>
       </c>
@@ -41980,13 +42082,13 @@
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="30"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="28" t="s">
         <v>12</v>
       </c>
       <c r="N23" s="28">
         <f>COUNTIFS(Coding!F:F,"Closed")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O23" s="27"/>
       <c r="P23" s="27"/>
@@ -42000,7 +42102,7 @@
       <c r="X23" s="27"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A24" s="30"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="28" t="s">
         <v>95</v>
       </c>
@@ -42016,7 +42118,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
-      <c r="L24" s="30"/>
+      <c r="L24" s="34"/>
       <c r="M24" s="28" t="s">
         <v>95</v>
       </c>
@@ -42036,7 +42138,7 @@
       <c r="X24" s="27"/>
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A25" s="30"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="28" t="s">
         <v>96</v>
       </c>
@@ -42052,7 +42154,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
-      <c r="L25" s="30"/>
+      <c r="L25" s="34"/>
       <c r="M25" s="28" t="s">
         <v>96</v>
       </c>
@@ -42072,7 +42174,7 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A26" s="31"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="28" t="s">
         <v>97</v>
       </c>
@@ -42088,7 +42190,7 @@
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="31"/>
+      <c r="L26" s="35"/>
       <c r="M26" s="28" t="s">
         <v>97</v>
       </c>

--- a/Monitor and Control/Car-Reviews.xlsx
+++ b/Monitor and Control/Car-Reviews.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aml\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI\QA\QA_project\Car-Bookings\Monitor and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
     <sheet name="SRS" sheetId="2" r:id="rId2"/>
     <sheet name="Design" sheetId="3" r:id="rId3"/>
     <sheet name="Coding" sheetId="4" r:id="rId4"/>
-    <sheet name="Progress" sheetId="5" r:id="rId5"/>
-    <sheet name="Option" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Immapc Analysis" sheetId="7" r:id="rId5"/>
+    <sheet name="Progress" sheetId="5" r:id="rId6"/>
+    <sheet name="Option" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Coding!$A$2:$H$15</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="135">
   <si>
     <t>Version No.</t>
   </si>
@@ -399,6 +400,61 @@
   <si>
     <t>Upated CM section to clarify the release version on GitHub (Vx)</t>
   </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>Eng Amr</t>
+  </si>
+  <si>
+    <t>14-5-2022</t>
+  </si>
+  <si>
+    <t>In changing the project manager impact analysis table in actions column divide actions under time,cost or project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aml </t>
+  </si>
+  <si>
+    <t>17-5-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In changing the project manager impact analysis table in impact column first point be more specific in the extra time that will be needed as an impact on project manager change </t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>In time pressure impact analysis table in actions column divide actions under time,cost or project</t>
+  </si>
+  <si>
+    <t>19-5-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In removing add admin and add users features impact analysis table (change_003) the impact on cost is not clear
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In removing add admin and add users features impact analysis table (change_003) the different actions that can be taken is not clear and need modification according to team discussions </t>
+  </si>
+  <si>
+    <t>Basma Galal</t>
+  </si>
+  <si>
+    <t>Aya Tarek</t>
+  </si>
+  <si>
+    <t>In removing add admin and add users features impact analysis table (change_003) the chosen actions should be changed according to the updates of the actions that have been discussed with the team</t>
+  </si>
+  <si>
+    <t>18-5-2022</t>
+  </si>
+  <si>
+    <t>Change update feature ( CR-006) desription to reflect the changes</t>
+  </si>
+  <si>
+    <t>Identify priority measurement (High - Medium-Low)</t>
+  </si>
 </sst>
 </file>
 
@@ -468,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -687,11 +743,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -783,6 +917,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,11 +937,139 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA8D08D"/>
+          <bgColor rgb="FFA8D08D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7CAAC"/>
+          <bgColor rgb="FFF7CAAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA8D08D"/>
+          <bgColor rgb="FFA8D08D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7CAAC"/>
+          <bgColor rgb="FFF7CAAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFA8D08D"/>
+          <bgColor rgb="FFA8D08D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7CAAC"/>
+          <bgColor rgb="FFF7CAAC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD8D8D8"/>
+          <bgColor rgb="FFD8D8D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1588,7 +1862,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3084,16 +3358,16 @@
       <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="72.5546875" customWidth="1"/>
-    <col min="6" max="7" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="72.5703125" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="10" width="8.6640625" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
@@ -7701,42 +7975,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="51" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="49" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F19 F21:F1000">
-    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7761,22 +8035,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="70.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="27" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="70.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" customHeight="1">
@@ -8263,10 +8537,10 @@
       <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="46">
         <v>44692</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="47" t="s">
         <v>60</v>
       </c>
       <c r="F20" s="14" t="s">
@@ -8275,17 +8549,61 @@
       <c r="G20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="46">
         <v>44694</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="14.25" customHeight="1">
-      <c r="F21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1">
-      <c r="F22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="A21" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="52">
+        <v>44695</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="51">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="44" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A22" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="52">
+        <v>44695</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="51">
+        <v>44698</v>
+      </c>
     </row>
     <row r="23" spans="1:27" ht="14.25" customHeight="1">
       <c r="F23" s="11"/>
@@ -11421,43 +11739,63 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
-  <conditionalFormatting sqref="F1:F17 F19:F1000">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+  <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
+    <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F17 F19:F1000">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+  <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
+    <cfRule type="cellIs" dxfId="54" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F17 F19:F1000">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+  <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
+    <cfRule type="cellIs" dxfId="53" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F17 F19:F1000">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+  <conditionalFormatting sqref="F1:F17 F23:F1000 F19:F21">
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="40" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="16" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11485,18 +11823,18 @@
   </sheetPr>
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="55.109375" customWidth="1"/>
-    <col min="6" max="25" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+    <col min="6" max="25" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" customHeight="1">
@@ -11587,7 +11925,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="14.4">
+    <row r="3" spans="1:26">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -11835,7 +12173,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" thickBot="1">
+    <row r="9" spans="1:26" ht="15.75" thickBot="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -12091,7 +12429,7 @@
         <v>44695</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.4">
+    <row r="16" spans="1:26">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -12119,7 +12457,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="14.4">
+    <row r="17" spans="1:26">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -39589,122 +39927,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39733,20 +40071,20 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="9" width="27.109375" customWidth="1"/>
-    <col min="10" max="26" width="8.6640625" customWidth="1"/>
+    <col min="8" max="9" width="27.140625" customWidth="1"/>
+    <col min="10" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20.399999999999999" customHeight="1" thickBot="1">
+    <row r="1" spans="1:26" ht="20.45" customHeight="1" thickBot="1">
       <c r="A1" s="29" t="s">
         <v>101</v>
       </c>
@@ -41332,62 +41670,62 @@
   </sheetData>
   <autoFilter ref="A2:H15"/>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41410,19 +41748,417 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" ht="75">
+      <c r="A2" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="120">
+      <c r="A3" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="75">
+      <c r="A4" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="1:26" ht="90">
+      <c r="A6" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="135">
+      <c r="A7" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="135">
+      <c r="A8" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:H5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" customHeight="1">
@@ -41452,7 +42188,7 @@
       <c r="X1" s="27"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -41470,7 +42206,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="37" t="s">
         <v>94</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -41492,7 +42228,7 @@
       <c r="X2" s="27"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A3" s="34"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
@@ -41508,13 +42244,13 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="34"/>
+      <c r="L3" s="38"/>
       <c r="M3" s="28" t="s">
         <v>12</v>
       </c>
       <c r="N3" s="28">
         <f>COUNTIFS(SRS!F:F,"Closed")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" s="27"/>
       <c r="P3" s="27"/>
@@ -41528,7 +42264,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="28" t="s">
         <v>95</v>
       </c>
@@ -41544,7 +42280,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="34"/>
+      <c r="L4" s="38"/>
       <c r="M4" s="28" t="s">
         <v>95</v>
       </c>
@@ -41564,7 +42300,7 @@
       <c r="X4" s="27"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A5" s="34"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="28" t="s">
         <v>96</v>
       </c>
@@ -41580,7 +42316,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
-      <c r="L5" s="34"/>
+      <c r="L5" s="38"/>
       <c r="M5" s="28" t="s">
         <v>96</v>
       </c>
@@ -41600,7 +42336,7 @@
       <c r="X5" s="27"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A6" s="35"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="28" t="s">
         <v>97</v>
       </c>
@@ -41616,13 +42352,13 @@
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
-      <c r="L6" s="35"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="28" t="s">
         <v>97</v>
       </c>
       <c r="N6" s="28">
         <f>SUM(N2:N5)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
@@ -42026,7 +42762,7 @@
       <c r="X21" s="27"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="37" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -42044,7 +42780,7 @@
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="36" t="s">
+      <c r="L22" s="40" t="s">
         <v>111</v>
       </c>
       <c r="M22" s="28" t="s">
@@ -42066,7 +42802,7 @@
       <c r="X22" s="27"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="28" t="s">
         <v>12</v>
       </c>
@@ -42082,7 +42818,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="34"/>
+      <c r="L23" s="38"/>
       <c r="M23" s="28" t="s">
         <v>12</v>
       </c>
@@ -42102,7 +42838,7 @@
       <c r="X23" s="27"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="28" t="s">
         <v>95</v>
       </c>
@@ -42118,7 +42854,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
-      <c r="L24" s="34"/>
+      <c r="L24" s="38"/>
       <c r="M24" s="28" t="s">
         <v>95</v>
       </c>
@@ -42138,7 +42874,7 @@
       <c r="X24" s="27"/>
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="28" t="s">
         <v>96</v>
       </c>
@@ -42154,7 +42890,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
-      <c r="L25" s="34"/>
+      <c r="L25" s="38"/>
       <c r="M25" s="28" t="s">
         <v>96</v>
       </c>
@@ -42174,7 +42910,7 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A26" s="35"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="28" t="s">
         <v>97</v>
       </c>
@@ -42190,7 +42926,7 @@
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="35"/>
+      <c r="L26" s="39"/>
       <c r="M26" s="28" t="s">
         <v>97</v>
       </c>
@@ -45696,17 +46432,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="14.25" customHeight="1">

--- a/Monitor and Control/Car-Reviews.xlsx
+++ b/Monitor and Control/Car-Reviews.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="Design" sheetId="3" r:id="rId3"/>
     <sheet name="Coding" sheetId="4" r:id="rId4"/>
     <sheet name="Immapc Analysis" sheetId="7" r:id="rId5"/>
-    <sheet name="Progress" sheetId="5" r:id="rId6"/>
-    <sheet name="Option" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Test Cases" sheetId="8" r:id="rId6"/>
+    <sheet name="Progress" sheetId="5" r:id="rId7"/>
+    <sheet name="Option" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Coding!$A$2:$H$15</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="142">
   <si>
     <t>Version No.</t>
   </si>
@@ -455,6 +456,27 @@
   <si>
     <t>Identify priority measurement (High - Medium-Low)</t>
   </si>
+  <si>
+    <t>23-5-2022</t>
+  </si>
+  <si>
+    <t>24-5-2022</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>1- Removed precondition "The website is opened successfully" as it is the first step of test steps from all the test cases in the login feature</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>1- Remove the steps 1&amp;2 in all test cases (open the website)(click on registration link) as there is a precondition that the registration page is accessed successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- In all test cases replace the step of "Enter test data" by more descriptive steps ex: "enter valid username" </t>
+  </si>
 </sst>
 </file>
 
@@ -463,11 +485,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,6 +531,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -825,117 +861,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -947,27 +966,77 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3354,8 +3423,8 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8035,9 +8104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -8537,10 +8606,10 @@
       <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="39">
         <v>44692</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="40" t="s">
         <v>60</v>
       </c>
       <c r="F20" s="14" t="s">
@@ -8549,59 +8618,59 @@
       <c r="G20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="39">
         <v>44694</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="14.25" customHeight="1">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="45">
         <v>44695</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="44">
         <v>44698</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="44" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A22" s="45" t="s">
+    <row r="22" spans="1:27" s="37" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A22" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="45">
         <v>44695</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="51">
+      <c r="H22" s="44">
         <v>44698</v>
       </c>
     </row>
@@ -11780,22 +11849,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39927,122 +39996,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="46" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F7 F16:F997">
-    <cfRule type="cellIs" dxfId="44" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F13">
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41670,62 +41739,62 @@
   </sheetData>
   <autoFilter ref="A2:H15"/>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F13:F16 F5:F10">
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41889,14 +41958,14 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:26" ht="90">
       <c r="A6" s="33" t="s">
@@ -41911,7 +41980,7 @@
       <c r="D6" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="34" t="s">
         <v>127</v>
       </c>
       <c r="F6" s="33" t="s">
@@ -41937,7 +42006,7 @@
       <c r="D7" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="35" t="s">
         <v>128</v>
       </c>
       <c r="F7" s="33" t="s">
@@ -41951,22 +42020,22 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="135">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="36" t="s">
         <v>132</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="36" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="33" t="s">
@@ -42121,22 +42190,22 @@
     <mergeCell ref="A5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -42145,6 +42214,208 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="37" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" s="37" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="90">
+      <c r="A3" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="37" customFormat="1" ht="60">
+      <c r="A4" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="37" customFormat="1" ht="15.75">
+      <c r="A5" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+    </row>
+    <row r="6" spans="1:9" ht="105">
+      <c r="A6" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60">
+      <c r="A7" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1">
+          <x14:formula1>
+            <xm:f>Option!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
@@ -42188,7 +42459,7 @@
       <c r="X1" s="27"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="49" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -42206,7 +42477,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="49" t="s">
         <v>94</v>
       </c>
       <c r="M2" s="28" t="s">
@@ -42228,7 +42499,7 @@
       <c r="X2" s="27"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="28" t="s">
         <v>12</v>
       </c>
@@ -42244,7 +42515,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
-      <c r="L3" s="38"/>
+      <c r="L3" s="50"/>
       <c r="M3" s="28" t="s">
         <v>12</v>
       </c>
@@ -42264,7 +42535,7 @@
       <c r="X3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A4" s="38"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="28" t="s">
         <v>95</v>
       </c>
@@ -42280,7 +42551,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
-      <c r="L4" s="38"/>
+      <c r="L4" s="50"/>
       <c r="M4" s="28" t="s">
         <v>95</v>
       </c>
@@ -42300,7 +42571,7 @@
       <c r="X4" s="27"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A5" s="38"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="28" t="s">
         <v>96</v>
       </c>
@@ -42316,7 +42587,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
-      <c r="L5" s="38"/>
+      <c r="L5" s="50"/>
       <c r="M5" s="28" t="s">
         <v>96</v>
       </c>
@@ -42336,7 +42607,7 @@
       <c r="X5" s="27"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A6" s="39"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="28" t="s">
         <v>97</v>
       </c>
@@ -42352,7 +42623,7 @@
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
-      <c r="L6" s="39"/>
+      <c r="L6" s="51"/>
       <c r="M6" s="28" t="s">
         <v>97</v>
       </c>
@@ -42762,7 +43033,7 @@
       <c r="X21" s="27"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="49" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="28" t="s">
@@ -42780,7 +43051,7 @@
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="52" t="s">
         <v>111</v>
       </c>
       <c r="M22" s="28" t="s">
@@ -42802,7 +43073,7 @@
       <c r="X22" s="27"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A23" s="38"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="28" t="s">
         <v>12</v>
       </c>
@@ -42818,7 +43089,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
-      <c r="L23" s="38"/>
+      <c r="L23" s="50"/>
       <c r="M23" s="28" t="s">
         <v>12</v>
       </c>
@@ -42838,7 +43109,7 @@
       <c r="X23" s="27"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A24" s="38"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="28" t="s">
         <v>95</v>
       </c>
@@ -42854,7 +43125,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
-      <c r="L24" s="38"/>
+      <c r="L24" s="50"/>
       <c r="M24" s="28" t="s">
         <v>95</v>
       </c>
@@ -42874,7 +43145,7 @@
       <c r="X24" s="27"/>
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A25" s="38"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="28" t="s">
         <v>96</v>
       </c>
@@ -42890,7 +43161,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
-      <c r="L25" s="38"/>
+      <c r="L25" s="50"/>
       <c r="M25" s="28" t="s">
         <v>96</v>
       </c>
@@ -42910,7 +43181,7 @@
       <c r="X25" s="27"/>
     </row>
     <row r="26" spans="1:24" ht="14.25" customHeight="1">
-      <c r="A26" s="39"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="28" t="s">
         <v>97</v>
       </c>
@@ -42926,7 +43197,7 @@
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
-      <c r="L26" s="39"/>
+      <c r="L26" s="51"/>
       <c r="M26" s="28" t="s">
         <v>97</v>
       </c>
@@ -46432,7 +46703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B1000"/>
   <sheetViews>
